--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(65-69).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(65-69).xlsx
@@ -736,7 +736,7 @@
     <t>1721.0 (±194.9)</t>
   </si>
   <si>
-    <t>651.8 (±131.0)</t>
+    <t>652.8 (±131.0)</t>
   </si>
   <si>
     <t>217.6 (±62.2)</t>
@@ -922,7 +922,7 @@
     <t>730.6(±82.8)</t>
   </si>
   <si>
-    <t>440.2(±88.5)</t>
+    <t>440.9(±88.5)</t>
   </si>
   <si>
     <t>332.9(±95.1)</t>
@@ -1111,7 +1111,7 @@
     <t>2358.2 (±307.2)</t>
   </si>
   <si>
-    <t>967.0 (±187.1)</t>
+    <t>968.0 (±187.1)</t>
   </si>
   <si>
     <t>252.4 (±86.4)</t>
@@ -1297,7 +1297,7 @@
     <t>458.8(±59.8)</t>
   </si>
   <si>
-    <t>293.6(±56.8)</t>
+    <t>293.9(±56.8)</t>
   </si>
   <si>
     <t>188.1(±64.4)</t>
@@ -6267,7 +6267,7 @@
         <v>3199</v>
       </c>
       <c r="H28">
-        <v>3754</v>
+        <v>3755</v>
       </c>
       <c r="I28">
         <v>3102.199999999998</v>
@@ -6288,7 +6288,7 @@
         <v>3233.199999999998</v>
       </c>
       <c r="O28">
-        <v>651.8</v>
+        <v>652.8</v>
       </c>
       <c r="P28">
         <v>131</v>
@@ -6312,7 +6312,7 @@
         <v>148066</v>
       </c>
       <c r="W28">
-        <v>440.2</v>
+        <v>440.9</v>
       </c>
       <c r="X28">
         <v>88.5</v>
@@ -8744,7 +8744,7 @@
         <v>4880</v>
       </c>
       <c r="H28">
-        <v>5757</v>
+        <v>5758</v>
       </c>
       <c r="I28">
         <v>4790</v>
@@ -8765,7 +8765,7 @@
         <v>4977.1</v>
       </c>
       <c r="O28">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="P28">
         <v>187.1</v>
@@ -8789,7 +8789,7 @@
         <v>329405</v>
       </c>
       <c r="W28">
-        <v>293.6</v>
+        <v>293.9</v>
       </c>
       <c r="X28">
         <v>56.8</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(65-69).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(65-69).xlsx
@@ -250,7 +250,7 @@
     <t>212.2 (±13.8)</t>
   </si>
   <si>
-    <t>3833.6 (±183.6)</t>
+    <t>3832.2 (±183.4)</t>
   </si>
   <si>
     <t>941.0 (±34.5)</t>
@@ -286,10 +286,10 @@
     <t>25.6 (±46.6)</t>
   </si>
   <si>
-    <t>277.0 (±38.6)</t>
-  </si>
-  <si>
-    <t>735.4 (±56.0)</t>
+    <t>264.0 (±38.6)</t>
+  </si>
+  <si>
+    <t>736.4 (±56.0)</t>
   </si>
   <si>
     <t>193.8 (±46.9)</t>
@@ -298,13 +298,13 @@
     <t>-3.6 (±5.8)</t>
   </si>
   <si>
-    <t>137.2 (±126.7)</t>
+    <t>136.2 (±126.7)</t>
   </si>
   <si>
     <t>-77.4 (±72.1)</t>
   </si>
   <si>
-    <t>24.4 (±31.7)</t>
+    <t>25.4 (±31.7)</t>
   </si>
   <si>
     <t>-69.0 (±60.1)</t>
@@ -322,10 +322,10 @@
     <t>9.4 (±3.7)</t>
   </si>
   <si>
-    <t>528.6 (±521.1)</t>
-  </si>
-  <si>
-    <t>-35.2 (±39.4)</t>
+    <t>532.6 (±521.1)</t>
+  </si>
+  <si>
+    <t>-29.2 (±39.4)</t>
   </si>
   <si>
     <t>-2.0 (±2.1)</t>
@@ -337,13 +337,13 @@
     <t>13.6 (±7.3)</t>
   </si>
   <si>
-    <t>-8.2 (±11.3)</t>
-  </si>
-  <si>
-    <t>22.8 (±13.8)</t>
-  </si>
-  <si>
-    <t>133.4 (±183.6)</t>
+    <t>-7.2 (±11.3)</t>
+  </si>
+  <si>
+    <t>21.8 (±13.8)</t>
+  </si>
+  <si>
+    <t>141.8 (±183.4)</t>
   </si>
   <si>
     <t>-44.0 (±34.5)</t>
@@ -355,7 +355,7 @@
     <t>227.6 (±35.4)</t>
   </si>
   <si>
-    <t>2158.0 (±253.3)</t>
+    <t>2161.0 (±253.3)</t>
   </si>
   <si>
     <t>637.2 (±117.7)</t>
@@ -367,7 +367,7 @@
     <t>34.8 (±29.9)</t>
   </si>
   <si>
-    <t>1404.4 (±40.8)</t>
+    <t>1268.4 (±40.8)</t>
   </si>
   <si>
     <t>-185.8 (±133.1)</t>
@@ -379,7 +379,7 @@
     <t>1.5% (±2.7%)</t>
   </si>
   <si>
-    <t>11.8% (±1.8%)</t>
+    <t>11.2% (±1.8%)</t>
   </si>
   <si>
     <t>22.7% (±2.1%)</t>
@@ -397,7 +397,7 @@
     <t>-5.3% (±4.4%)</t>
   </si>
   <si>
-    <t>6.4% (±8.2%)</t>
+    <t>6.7% (±8.2%)</t>
   </si>
   <si>
     <t>-5.3% (±4.1%)</t>
@@ -418,7 +418,7 @@
     <t>4.8% (±4.7%)</t>
   </si>
   <si>
-    <t>-4.7% (±4.7%)</t>
+    <t>-3.9% (±4.7%)</t>
   </si>
   <si>
     <t>-28.6% (±16.5%)</t>
@@ -430,13 +430,13 @@
     <t>14.6% (±8.3%)</t>
   </si>
   <si>
-    <t>-8.6% (±9.7%)</t>
-  </si>
-  <si>
-    <t>10.7% (±6.7%)</t>
-  </si>
-  <si>
-    <t>3.5% (±4.7%)</t>
+    <t>-7.6% (±9.8%)</t>
+  </si>
+  <si>
+    <t>10.3% (±6.8%)</t>
+  </si>
+  <si>
+    <t>3.7% (±4.7%)</t>
   </si>
   <si>
     <t>-4.7% (±3.3%)</t>
@@ -448,7 +448,7 @@
     <t>12.2% (±2.1%)</t>
   </si>
   <si>
-    <t>28.3% (±4.2%)</t>
+    <t>28.3% (±4.1%)</t>
   </si>
   <si>
     <t>18.5% (±3.9%)</t>
@@ -460,7 +460,7 @@
     <t>7.6% (±6.6%)</t>
   </si>
   <si>
-    <t>22.7% (±0.8%)</t>
+    <t>20.5% (±0.8%)</t>
   </si>
   <si>
     <t>-9.6% (±5.8%)</t>
@@ -472,10 +472,10 @@
     <t>10.8(±19.6)</t>
   </si>
   <si>
-    <t>86.2(±12.0)</t>
-  </si>
-  <si>
-    <t>284.4(±21.7)</t>
+    <t>82.2(±12.0)</t>
+  </si>
+  <si>
+    <t>284.8(±21.7)</t>
   </si>
   <si>
     <t>136.1(±32.9)</t>
@@ -484,13 +484,13 @@
     <t>-15.6(±25.1)</t>
   </si>
   <si>
-    <t>37.8(±34.9)</t>
+    <t>37.5(±34.9)</t>
   </si>
   <si>
     <t>-47.3(±44.1)</t>
   </si>
   <si>
-    <t>53.8(±69.8)</t>
+    <t>56.0(±69.8)</t>
   </si>
   <si>
     <t>-37.2(±32.4)</t>
@@ -508,10 +508,10 @@
     <t>111.5(±43.9)</t>
   </si>
   <si>
-    <t>29.1(±28.6)</t>
-  </si>
-  <si>
-    <t>-53.4(±59.8)</t>
+    <t>29.3(±28.7)</t>
+  </si>
+  <si>
+    <t>-44.3(±59.8)</t>
   </si>
   <si>
     <t>-178.9(±187.8)</t>
@@ -523,13 +523,13 @@
     <t>97.8(±52.4)</t>
   </si>
   <si>
-    <t>-56.9(±78.4)</t>
-  </si>
-  <si>
-    <t>118.3(±71.6)</t>
-  </si>
-  <si>
-    <t>26.5(±36.5)</t>
+    <t>-50.0(±78.5)</t>
+  </si>
+  <si>
+    <t>113.1(±71.7)</t>
+  </si>
+  <si>
+    <t>28.2(±36.5)</t>
   </si>
   <si>
     <t>-31.8(±24.9)</t>
@@ -541,7 +541,7 @@
     <t>67.4(±10.5)</t>
   </si>
   <si>
-    <t>322.0(±37.8)</t>
+    <t>322.5(±37.8)</t>
   </si>
   <si>
     <t>228.9(±42.3)</t>
@@ -553,7 +553,7 @@
     <t>50.6(±43.4)</t>
   </si>
   <si>
-    <t>110.4(±3.3)</t>
+    <t>99.7(±3.3)</t>
   </si>
   <si>
     <t>-68.1(±48.8)</t>
@@ -625,7 +625,7 @@
     <t>351.4 (±27.6)</t>
   </si>
   <si>
-    <t>5589.2 (±281.4)</t>
+    <t>5582.8 (±284.2)</t>
   </si>
   <si>
     <t>1433.0 (±67.0)</t>
@@ -661,7 +661,7 @@
     <t>105.0 (±100.8)</t>
   </si>
   <si>
-    <t>574.2 (±99.0)</t>
+    <t>531.2 (±99.0)</t>
   </si>
   <si>
     <t>1048.0 (±123.9)</t>
@@ -679,13 +679,13 @@
     <t>-60.0 (±73.4)</t>
   </si>
   <si>
-    <t>69.2 (±16.0)</t>
+    <t>70.2 (±16.0)</t>
   </si>
   <si>
     <t>-259.6 (±124.1)</t>
   </si>
   <si>
-    <t>925.4 (±392.0)</t>
+    <t>930.4 (±392.0)</t>
   </si>
   <si>
     <t>347.8 (±131.8)</t>
@@ -697,10 +697,10 @@
     <t>6.2 (±5.4)</t>
   </si>
   <si>
-    <t>2333.0 (±1010.2)</t>
-  </si>
-  <si>
-    <t>62.6 (±30.8)</t>
+    <t>2343.0 (±1010.2)</t>
+  </si>
+  <si>
+    <t>78.6 (±30.8)</t>
   </si>
   <si>
     <t>-1.6 (±2.4)</t>
@@ -715,13 +715,13 @@
     <t>-12.6 (±6.8)</t>
   </si>
   <si>
-    <t>123.6 (±27.6)</t>
-  </si>
-  <si>
-    <t>155.8 (±281.4)</t>
-  </si>
-  <si>
-    <t>-61.0 (±67.0)</t>
+    <t>113.6 (±27.6)</t>
+  </si>
+  <si>
+    <t>167.2 (±284.2)</t>
+  </si>
+  <si>
+    <t>-60.0 (±67.0)</t>
   </si>
   <si>
     <t>7084.0 (±1010.1)</t>
@@ -730,7 +730,7 @@
     <t>432.0 (±65.8)</t>
   </si>
   <si>
-    <t>4533.8 (±646.2)</t>
+    <t>4537.8 (±646.2)</t>
   </si>
   <si>
     <t>1721.0 (±194.9)</t>
@@ -739,10 +739,10 @@
     <t>652.8 (±131.0)</t>
   </si>
   <si>
-    <t>217.6 (±62.2)</t>
-  </si>
-  <si>
-    <t>2489.2 (±209.9)</t>
+    <t>221.6 (±62.2)</t>
+  </si>
+  <si>
+    <t>2313.2 (±209.9)</t>
   </si>
   <si>
     <t>-87.2 (±200.6)</t>
@@ -754,7 +754,7 @@
     <t>3.8% (±3.7%)</t>
   </si>
   <si>
-    <t>14.4% (±2.8%)</t>
+    <t>13.3% (±2.7%)</t>
   </si>
   <si>
     <t>17.5% (±2.4%)</t>
@@ -772,7 +772,7 @@
     <t>-2.7% (±3.2%)</t>
   </si>
   <si>
-    <t>9.4% (±2.3%)</t>
+    <t>9.5% (±2.3%)</t>
   </si>
   <si>
     <t>-10.6% (±4.4%)</t>
@@ -790,10 +790,10 @@
     <t>7.8% (±6.9%)</t>
   </si>
   <si>
-    <t>12.5% (±5.8%)</t>
-  </si>
-  <si>
-    <t>4.8% (±2.4%)</t>
+    <t>12.6% (±5.8%)</t>
+  </si>
+  <si>
+    <t>6.0% (±2.4%)</t>
   </si>
   <si>
     <t>-11.8% (±13.2%)</t>
@@ -808,13 +808,13 @@
     <t>-7.9% (±3.8%)</t>
   </si>
   <si>
-    <t>35.2% (±9.9%)</t>
-  </si>
-  <si>
-    <t>2.8% (±4.9%)</t>
-  </si>
-  <si>
-    <t>-4.3% (±4.2%)</t>
+    <t>32.3% (±9.6%)</t>
+  </si>
+  <si>
+    <t>3.0% (±5.0%)</t>
+  </si>
+  <si>
+    <t>-4.2% (±4.3%)</t>
   </si>
   <si>
     <t>29.5% (±5.2%)</t>
@@ -823,7 +823,7 @@
     <t>11.6% (±2.0%)</t>
   </si>
   <si>
-    <t>32.9% (±5.9%)</t>
+    <t>33.0% (±6.0%)</t>
   </si>
   <si>
     <t>30.6% (±4.4%)</t>
@@ -832,10 +832,10 @@
     <t>21.0% (±4.9%)</t>
   </si>
   <si>
-    <t>24.1% (±8.0%)</t>
-  </si>
-  <si>
-    <t>18.6% (±1.8%)</t>
+    <t>24.5% (±8.0%)</t>
+  </si>
+  <si>
+    <t>17.3% (±1.8%)</t>
   </si>
   <si>
     <t>-3.1% (±6.6%)</t>
@@ -847,7 +847,7 @@
     <t>49.2(±47.3)</t>
   </si>
   <si>
-    <t>190.0(±32.7)</t>
+    <t>175.7(±32.8)</t>
   </si>
   <si>
     <t>510.6(±60.3)</t>
@@ -865,13 +865,13 @@
     <t>-38.5(±47.1)</t>
   </si>
   <si>
-    <t>215.5(±49.9)</t>
+    <t>218.6(±49.9)</t>
   </si>
   <si>
     <t>-151.6(±72.5)</t>
   </si>
   <si>
-    <t>50.4(±21.4)</t>
+    <t>50.7(±21.3)</t>
   </si>
   <si>
     <t>121.6(±46.1)</t>
@@ -883,10 +883,10 @@
     <t>72.5(±63.2)</t>
   </si>
   <si>
-    <t>141.2(±61.1)</t>
-  </si>
-  <si>
-    <t>142.7(±70.1)</t>
+    <t>141.8(±61.1)</t>
+  </si>
+  <si>
+    <t>179.1(±70.2)</t>
   </si>
   <si>
     <t>-151.5(±227.3)</t>
@@ -901,13 +901,13 @@
     <t>-89.8(±48.5)</t>
   </si>
   <si>
-    <t>729.0(±162.8)</t>
-  </si>
-  <si>
-    <t>31.6(±57.0)</t>
-  </si>
-  <si>
-    <t>-44.5(±48.9)</t>
+    <t>670.0(±162.8)</t>
+  </si>
+  <si>
+    <t>33.9(±57.6)</t>
+  </si>
+  <si>
+    <t>-43.8(±48.9)</t>
   </si>
   <si>
     <t>646.8(±92.2)</t>
@@ -916,7 +916,7 @@
     <t>151.3(±23.1)</t>
   </si>
   <si>
-    <t>852.6(±121.6)</t>
+    <t>853.4(±121.5)</t>
   </si>
   <si>
     <t>730.6(±82.8)</t>
@@ -925,10 +925,10 @@
     <t>440.9(±88.5)</t>
   </si>
   <si>
-    <t>332.9(±95.1)</t>
-  </si>
-  <si>
-    <t>214.6(±18.0)</t>
+    <t>339.0(±95.1)</t>
+  </si>
+  <si>
+    <t>199.4(±18.1)</t>
   </si>
   <si>
     <t>-32.6(±75.1)</t>
@@ -1000,7 +1000,7 @@
     <t>563.6 (±34.9)</t>
   </si>
   <si>
-    <t>9422.8 (±462.4)</t>
+    <t>9415.0 (±464.7)</t>
   </si>
   <si>
     <t>2374.0 (±99.3)</t>
@@ -1036,10 +1036,10 @@
     <t>130.6 (±144.6)</t>
   </si>
   <si>
-    <t>851.2 (±104.5)</t>
-  </si>
-  <si>
-    <t>1783.4 (±170.9)</t>
+    <t>795.2 (±104.5)</t>
+  </si>
+  <si>
+    <t>1784.4 (±170.9)</t>
   </si>
   <si>
     <t>652.2 (±78.1)</t>
@@ -1048,19 +1048,19 @@
     <t>0.4 (±17.0)</t>
   </si>
   <si>
-    <t>692.6 (±260.8)</t>
+    <t>691.6 (±260.8)</t>
   </si>
   <si>
     <t>-137.4 (±143.2)</t>
   </si>
   <si>
-    <t>93.6 (±32.4)</t>
+    <t>95.6 (±32.4)</t>
   </si>
   <si>
     <t>-328.6 (±172.9)</t>
   </si>
   <si>
-    <t>1720.2 (±376.5)</t>
+    <t>1725.2 (±376.5)</t>
   </si>
   <si>
     <t>593.4 (±184.6)</t>
@@ -1072,10 +1072,10 @@
     <t>15.6 (±6.6)</t>
   </si>
   <si>
-    <t>2861.6 (±1526.8)</t>
-  </si>
-  <si>
-    <t>27.4 (±67.1)</t>
+    <t>2875.6 (±1526.8)</t>
+  </si>
+  <si>
+    <t>49.4 (±67.1)</t>
   </si>
   <si>
     <t>-3.6 (±3.2)</t>
@@ -1087,16 +1087,16 @@
     <t>14.8 (±25.8)</t>
   </si>
   <si>
-    <t>-20.8 (±13.7)</t>
-  </si>
-  <si>
-    <t>146.4 (±34.9)</t>
-  </si>
-  <si>
-    <t>289.2 (±462.4)</t>
-  </si>
-  <si>
-    <t>-105.0 (±99.3)</t>
+    <t>-19.8 (±13.7)</t>
+  </si>
+  <si>
+    <t>135.4 (±34.9)</t>
+  </si>
+  <si>
+    <t>309.0 (±464.7)</t>
+  </si>
+  <si>
+    <t>-104.0 (±99.3)</t>
   </si>
   <si>
     <t>10171.6 (±1499.3)</t>
@@ -1105,7 +1105,7 @@
     <t>659.6 (±78.0)</t>
   </si>
   <si>
-    <t>6691.8 (±881.1)</t>
+    <t>6698.8 (±881.1)</t>
   </si>
   <si>
     <t>2358.2 (±307.2)</t>
@@ -1114,10 +1114,10 @@
     <t>968.0 (±187.1)</t>
   </si>
   <si>
-    <t>252.4 (±86.4)</t>
-  </si>
-  <si>
-    <t>3895.6 (±187.5)</t>
+    <t>256.4 (±86.4)</t>
+  </si>
+  <si>
+    <t>3581.6 (±187.5)</t>
   </si>
   <si>
     <t>-273.0 (±330.4)</t>
@@ -1129,7 +1129,7 @@
     <t>2.9% (±3.2%)</t>
   </si>
   <si>
-    <t>13.4% (±1.8%)</t>
+    <t>12.5% (±1.8%)</t>
   </si>
   <si>
     <t>19.3% (±2.1%)</t>
@@ -1147,7 +1147,7 @@
     <t>-3.7% (±3.7%)</t>
   </si>
   <si>
-    <t>8.4% (±3.1%)</t>
+    <t>8.6% (±3.1%)</t>
   </si>
   <si>
     <t>-8.8% (±4.0%)</t>
@@ -1168,7 +1168,7 @@
     <t>9.7% (±5.4%)</t>
   </si>
   <si>
-    <t>1.3% (±3.2%)</t>
+    <t>2.4% (±3.2%)</t>
   </si>
   <si>
     <t>-17.5% (±11.1%)</t>
@@ -1180,16 +1180,16 @@
     <t>5.7% (±9.6%)</t>
   </si>
   <si>
-    <t>-8.2% (±4.6%)</t>
-  </si>
-  <si>
-    <t>26.0% (±7.4%)</t>
-  </si>
-  <si>
-    <t>3.1% (±4.9%)</t>
-  </si>
-  <si>
-    <t>-4.4% (±3.9%)</t>
+    <t>-7.8% (±4.7%)</t>
+  </si>
+  <si>
+    <t>24.0% (±7.2%)</t>
+  </si>
+  <si>
+    <t>3.3% (±4.9%)</t>
+  </si>
+  <si>
+    <t>-4.4% (±3.8%)</t>
   </si>
   <si>
     <t>27.5% (±5.0%)</t>
@@ -1207,10 +1207,10 @@
     <t>20.2% (±4.5%)</t>
   </si>
   <si>
-    <t>18.5% (±7.0%)</t>
-  </si>
-  <si>
-    <t>19.9% (±1.1%)</t>
+    <t>18.8% (±7.1%)</t>
+  </si>
+  <si>
+    <t>18.3% (±1.1%)</t>
   </si>
   <si>
     <t>-5.8% (±6.1%)</t>
@@ -1222,10 +1222,10 @@
     <t>29.0(±32.1)</t>
   </si>
   <si>
-    <t>136.5(±16.8)</t>
-  </si>
-  <si>
-    <t>384.5(±36.8)</t>
+    <t>127.5(±16.8)</t>
+  </si>
+  <si>
+    <t>384.7(±36.9)</t>
   </si>
   <si>
     <t>244.0(±29.2)</t>
@@ -1234,19 +1234,19 @@
     <t>0.9(±37.8)</t>
   </si>
   <si>
-    <t>102.0(±38.4)</t>
+    <t>101.9(±38.4)</t>
   </si>
   <si>
     <t>-43.0(±44.8)</t>
   </si>
   <si>
-    <t>120.8(±41.8)</t>
+    <t>123.4(±41.8)</t>
   </si>
   <si>
     <t>-92.1(±48.5)</t>
   </si>
   <si>
-    <t>44.1(±9.6)</t>
+    <t>44.2(±9.6)</t>
   </si>
   <si>
     <t>97.4(±30.3)</t>
@@ -1258,10 +1258,10 @@
     <t>91.9(±38.8)</t>
   </si>
   <si>
-    <t>82.4(±44.0)</t>
-  </si>
-  <si>
-    <t>25.0(±61.1)</t>
+    <t>82.8(±44.0)</t>
+  </si>
+  <si>
+    <t>45.0(±61.1)</t>
   </si>
   <si>
     <t>-165.6(±147.2)</t>
@@ -1273,16 +1273,16 @@
     <t>53.8(±93.8)</t>
   </si>
   <si>
-    <t>-73.1(±48.1)</t>
-  </si>
-  <si>
-    <t>404.2(±96.3)</t>
-  </si>
-  <si>
-    <t>29.0(±46.5)</t>
-  </si>
-  <si>
-    <t>-38.1(±36.0)</t>
+    <t>-69.6(±48.2)</t>
+  </si>
+  <si>
+    <t>373.8(±96.3)</t>
+  </si>
+  <si>
+    <t>31.0(±46.7)</t>
+  </si>
+  <si>
+    <t>-37.8(±36.1)</t>
   </si>
   <si>
     <t>415.5(±61.3)</t>
@@ -1291,7 +1291,7 @@
     <t>105.9(±12.5)</t>
   </si>
   <si>
-    <t>556.8(±73.3)</t>
+    <t>557.4(±73.3)</t>
   </si>
   <si>
     <t>458.8(±59.8)</t>
@@ -1300,10 +1300,10 @@
     <t>293.9(±56.8)</t>
   </si>
   <si>
-    <t>188.1(±64.4)</t>
-  </si>
-  <si>
-    <t>160.2(±7.7)</t>
+    <t>191.1(±64.3)</t>
+  </si>
+  <si>
+    <t>147.3(±7.7)</t>
   </si>
   <si>
     <t>-50.6(±61.2)</t>
@@ -1865,7 +1865,7 @@
         <v>2332</v>
       </c>
       <c r="H3">
-        <v>2625</v>
+        <v>2612</v>
       </c>
       <c r="I3">
         <v>2348</v>
@@ -1886,13 +1886,13 @@
         <v>2386.6</v>
       </c>
       <c r="O3">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="P3">
         <v>38.6</v>
       </c>
       <c r="Q3">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
       <c r="R3">
         <v>1.8</v>
@@ -1910,7 +1910,7 @@
         <v>321281</v>
       </c>
       <c r="W3">
-        <v>86.2</v>
+        <v>82.2</v>
       </c>
       <c r="X3">
         <v>12</v>
@@ -1942,7 +1942,7 @@
         <v>3101</v>
       </c>
       <c r="H4">
-        <v>3976</v>
+        <v>3977</v>
       </c>
       <c r="I4">
         <v>3240.6</v>
@@ -1963,7 +1963,7 @@
         <v>3296.6</v>
       </c>
       <c r="O4">
-        <v>735.4</v>
+        <v>736.4</v>
       </c>
       <c r="P4">
         <v>56</v>
@@ -1987,7 +1987,7 @@
         <v>258560</v>
       </c>
       <c r="W4">
-        <v>284.4</v>
+        <v>284.8</v>
       </c>
       <c r="X4">
         <v>21.7</v>
@@ -2173,7 +2173,7 @@
         <v>3109</v>
       </c>
       <c r="H7">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="I7">
         <v>3401.799999999999</v>
@@ -2194,7 +2194,7 @@
         <v>3528.499999999999</v>
       </c>
       <c r="O7">
-        <v>137.2</v>
+        <v>136.2</v>
       </c>
       <c r="P7">
         <v>126.7</v>
@@ -2218,7 +2218,7 @@
         <v>363248</v>
       </c>
       <c r="W7">
-        <v>37.8</v>
+        <v>37.5</v>
       </c>
       <c r="X7">
         <v>34.9</v>
@@ -2327,7 +2327,7 @@
         <v>335</v>
       </c>
       <c r="H9">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I9">
         <v>379.6</v>
@@ -2348,13 +2348,13 @@
         <v>411.3</v>
       </c>
       <c r="O9">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="P9">
         <v>31.7</v>
       </c>
       <c r="Q9">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="R9">
         <v>8.199999999999999</v>
@@ -2372,7 +2372,7 @@
         <v>45393</v>
       </c>
       <c r="W9">
-        <v>53.8</v>
+        <v>56</v>
       </c>
       <c r="X9">
         <v>69.8</v>
@@ -2789,7 +2789,7 @@
         <v>9861</v>
       </c>
       <c r="H15">
-        <v>11512</v>
+        <v>11516</v>
       </c>
       <c r="I15">
         <v>10983.4</v>
@@ -2810,7 +2810,7 @@
         <v>11504.5</v>
       </c>
       <c r="O15">
-        <v>528.6</v>
+        <v>532.6</v>
       </c>
       <c r="P15">
         <v>521.1</v>
@@ -2834,10 +2834,10 @@
         <v>1818274</v>
       </c>
       <c r="W15">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="X15">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="Y15" t="s">
         <v>163</v>
@@ -2866,7 +2866,7 @@
         <v>679</v>
       </c>
       <c r="H16">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="I16">
         <v>755.1999999999998</v>
@@ -2887,13 +2887,13 @@
         <v>794.5999999999998</v>
       </c>
       <c r="O16">
-        <v>-35.2</v>
+        <v>-29.2</v>
       </c>
       <c r="P16">
         <v>39.4</v>
       </c>
       <c r="Q16">
-        <v>-4.7</v>
+        <v>-3.9</v>
       </c>
       <c r="R16">
         <v>4.7</v>
@@ -2911,7 +2911,7 @@
         <v>65922</v>
       </c>
       <c r="W16">
-        <v>-53.4</v>
+        <v>-44.3</v>
       </c>
       <c r="X16">
         <v>59.8</v>
@@ -3174,7 +3174,7 @@
         <v>80</v>
       </c>
       <c r="H20">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I20">
         <v>95.19999999999997</v>
@@ -3195,16 +3195,16 @@
         <v>106.5</v>
       </c>
       <c r="O20">
-        <v>-8.199999999999999</v>
+        <v>-7.2</v>
       </c>
       <c r="P20">
         <v>11.3</v>
       </c>
       <c r="Q20">
-        <v>-8.6</v>
+        <v>-7.6</v>
       </c>
       <c r="R20">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S20" t="s">
         <v>75</v>
@@ -3219,10 +3219,10 @@
         <v>14406</v>
       </c>
       <c r="W20">
-        <v>-56.9</v>
+        <v>-50</v>
       </c>
       <c r="X20">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="Y20" t="s">
         <v>168</v>
@@ -3251,7 +3251,7 @@
         <v>204</v>
       </c>
       <c r="H21">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I21">
         <v>212.2</v>
@@ -3272,16 +3272,16 @@
         <v>226</v>
       </c>
       <c r="O21">
-        <v>22.8</v>
+        <v>21.8</v>
       </c>
       <c r="P21">
         <v>13.8</v>
       </c>
       <c r="Q21">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="R21">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="S21" t="s">
         <v>76</v>
@@ -3296,10 +3296,10 @@
         <v>19269</v>
       </c>
       <c r="W21">
-        <v>118.3</v>
+        <v>113.1</v>
       </c>
       <c r="X21">
-        <v>71.59999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="Y21" t="s">
         <v>169</v>
@@ -3316,46 +3316,46 @@
         <v>4120</v>
       </c>
       <c r="D22">
-        <v>3871</v>
+        <v>3865</v>
       </c>
       <c r="E22">
-        <v>3626</v>
+        <v>3629</v>
       </c>
       <c r="F22">
-        <v>3580</v>
+        <v>3577</v>
       </c>
       <c r="G22">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="H22">
-        <v>3967</v>
+        <v>3974</v>
       </c>
       <c r="I22">
-        <v>3833.6</v>
+        <v>3832.2</v>
       </c>
       <c r="J22">
-        <v>209.5</v>
+        <v>209.2</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>183.6</v>
+        <v>183.4</v>
       </c>
       <c r="M22">
-        <v>3650</v>
+        <v>3648.8</v>
       </c>
       <c r="N22">
-        <v>4017.2</v>
+        <v>4015.6</v>
       </c>
       <c r="O22">
-        <v>133.4</v>
+        <v>141.8</v>
       </c>
       <c r="P22">
-        <v>183.6</v>
+        <v>183.4</v>
       </c>
       <c r="Q22">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="R22">
         <v>4.7</v>
@@ -3373,7 +3373,7 @@
         <v>502794</v>
       </c>
       <c r="W22">
-        <v>26.5</v>
+        <v>28.2</v>
       </c>
       <c r="X22">
         <v>36.5</v>
@@ -3636,7 +3636,7 @@
         <v>7618</v>
       </c>
       <c r="H26">
-        <v>9792</v>
+        <v>9795</v>
       </c>
       <c r="I26">
         <v>7633.999999999999</v>
@@ -3657,7 +3657,7 @@
         <v>7887.299999999999</v>
       </c>
       <c r="O26">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="P26">
         <v>253.3</v>
@@ -3666,7 +3666,7 @@
         <v>28.3</v>
       </c>
       <c r="R26">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="S26" t="s">
         <v>81</v>
@@ -3681,7 +3681,7 @@
         <v>670155</v>
       </c>
       <c r="W26">
-        <v>322</v>
+        <v>322.5</v>
       </c>
       <c r="X26">
         <v>37.8</v>
@@ -3944,7 +3944,7 @@
         <v>6112</v>
       </c>
       <c r="H30">
-        <v>7597</v>
+        <v>7461</v>
       </c>
       <c r="I30">
         <v>6192.599999999999</v>
@@ -3965,13 +3965,13 @@
         <v>6233.399999999999</v>
       </c>
       <c r="O30">
-        <v>1404.4</v>
+        <v>1268.4</v>
       </c>
       <c r="P30">
         <v>40.8</v>
       </c>
       <c r="Q30">
-        <v>22.7</v>
+        <v>20.5</v>
       </c>
       <c r="R30">
         <v>0.8</v>
@@ -3989,7 +3989,7 @@
         <v>1271580</v>
       </c>
       <c r="W30">
-        <v>110.4</v>
+        <v>99.7</v>
       </c>
       <c r="X30">
         <v>3.3</v>
@@ -4342,7 +4342,7 @@
         <v>3729</v>
       </c>
       <c r="H3">
-        <v>4571</v>
+        <v>4528</v>
       </c>
       <c r="I3">
         <v>3996.8</v>
@@ -4363,16 +4363,16 @@
         <v>4095.8</v>
       </c>
       <c r="O3">
-        <v>574.2</v>
+        <v>531.2</v>
       </c>
       <c r="P3">
         <v>99</v>
       </c>
       <c r="Q3">
-        <v>14.4</v>
+        <v>13.3</v>
       </c>
       <c r="R3">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="S3" t="s">
         <v>183</v>
@@ -4387,10 +4387,10 @@
         <v>302248</v>
       </c>
       <c r="W3">
-        <v>190</v>
+        <v>175.7</v>
       </c>
       <c r="X3">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="Y3" t="s">
         <v>276</v>
@@ -4804,7 +4804,7 @@
         <v>752</v>
       </c>
       <c r="H9">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="I9">
         <v>737.8000000000001</v>
@@ -4825,13 +4825,13 @@
         <v>753.8000000000001</v>
       </c>
       <c r="O9">
-        <v>69.2</v>
+        <v>70.2</v>
       </c>
       <c r="P9">
         <v>16</v>
       </c>
       <c r="Q9">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="R9">
         <v>2.3</v>
@@ -4849,7 +4849,7 @@
         <v>32108</v>
       </c>
       <c r="W9">
-        <v>215.5</v>
+        <v>218.6</v>
       </c>
       <c r="X9">
         <v>49.9</v>
@@ -4958,7 +4958,7 @@
         <v>21980</v>
       </c>
       <c r="H11">
-        <v>24042</v>
+        <v>24047</v>
       </c>
       <c r="I11">
         <v>23116.6</v>
@@ -4979,7 +4979,7 @@
         <v>23508.6</v>
       </c>
       <c r="O11">
-        <v>925.4</v>
+        <v>930.4</v>
       </c>
       <c r="P11">
         <v>392</v>
@@ -5003,10 +5003,10 @@
         <v>1835511</v>
       </c>
       <c r="W11">
-        <v>50.4</v>
+        <v>50.7</v>
       </c>
       <c r="X11">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Y11" t="s">
         <v>284</v>
@@ -5266,7 +5266,7 @@
         <v>16617</v>
       </c>
       <c r="H15">
-        <v>20941</v>
+        <v>20951</v>
       </c>
       <c r="I15">
         <v>18608</v>
@@ -5287,13 +5287,13 @@
         <v>19618.2</v>
       </c>
       <c r="O15">
-        <v>2333</v>
+        <v>2343</v>
       </c>
       <c r="P15">
         <v>1010.2</v>
       </c>
       <c r="Q15">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="R15">
         <v>5.8</v>
@@ -5311,7 +5311,7 @@
         <v>1652740</v>
       </c>
       <c r="W15">
-        <v>141.2</v>
+        <v>141.8</v>
       </c>
       <c r="X15">
         <v>61.1</v>
@@ -5343,7 +5343,7 @@
         <v>1246</v>
       </c>
       <c r="H16">
-        <v>1368</v>
+        <v>1384</v>
       </c>
       <c r="I16">
         <v>1305.4</v>
@@ -5364,13 +5364,13 @@
         <v>1336.2</v>
       </c>
       <c r="O16">
-        <v>62.6</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="P16">
         <v>30.8</v>
       </c>
       <c r="Q16">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>2.4</v>
@@ -5388,10 +5388,10 @@
         <v>43882</v>
       </c>
       <c r="W16">
-        <v>142.7</v>
+        <v>179.1</v>
       </c>
       <c r="X16">
-        <v>70.09999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="Y16" t="s">
         <v>289</v>
@@ -5728,7 +5728,7 @@
         <v>373</v>
       </c>
       <c r="H21">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="I21">
         <v>351.4</v>
@@ -5749,16 +5749,16 @@
         <v>379</v>
       </c>
       <c r="O21">
-        <v>123.6</v>
+        <v>113.6</v>
       </c>
       <c r="P21">
         <v>27.6</v>
       </c>
       <c r="Q21">
-        <v>35.2</v>
+        <v>32.3</v>
       </c>
       <c r="R21">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="S21" t="s">
         <v>201</v>
@@ -5773,7 +5773,7 @@
         <v>16954</v>
       </c>
       <c r="W21">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="X21">
         <v>162.8</v>
@@ -5793,49 +5793,49 @@
         <v>6058</v>
       </c>
       <c r="D22">
-        <v>5581</v>
+        <v>5572</v>
       </c>
       <c r="E22">
-        <v>5310</v>
+        <v>5299</v>
       </c>
       <c r="F22">
         <v>5309</v>
       </c>
       <c r="G22">
-        <v>5144</v>
+        <v>5132</v>
       </c>
       <c r="H22">
-        <v>5745</v>
+        <v>5750</v>
       </c>
       <c r="I22">
-        <v>5589.2</v>
+        <v>5582.799999999997</v>
       </c>
       <c r="J22">
-        <v>321</v>
+        <v>324.2</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>281.4</v>
+        <v>284.2</v>
       </c>
       <c r="M22">
-        <v>5307.8</v>
+        <v>5298.599999999998</v>
       </c>
       <c r="N22">
-        <v>5870.599999999999</v>
+        <v>5866.999999999997</v>
       </c>
       <c r="O22">
-        <v>155.8</v>
+        <v>167.2</v>
       </c>
       <c r="P22">
-        <v>281.4</v>
+        <v>284.2</v>
       </c>
       <c r="Q22">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="S22" t="s">
         <v>202</v>
@@ -5850,10 +5850,10 @@
         <v>493254</v>
       </c>
       <c r="W22">
-        <v>31.6</v>
+        <v>33.9</v>
       </c>
       <c r="X22">
-        <v>57</v>
+        <v>57.6</v>
       </c>
       <c r="Y22" t="s">
         <v>295</v>
@@ -5882,7 +5882,7 @@
         <v>1296</v>
       </c>
       <c r="H23">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="I23">
         <v>1433</v>
@@ -5903,16 +5903,16 @@
         <v>1500</v>
       </c>
       <c r="O23">
-        <v>-61</v>
+        <v>-60</v>
       </c>
       <c r="P23">
         <v>67</v>
       </c>
       <c r="Q23">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="R23">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="S23" t="s">
         <v>203</v>
@@ -5927,7 +5927,7 @@
         <v>137044</v>
       </c>
       <c r="W23">
-        <v>-44.5</v>
+        <v>-43.8</v>
       </c>
       <c r="X23">
         <v>48.9</v>
@@ -6113,7 +6113,7 @@
         <v>14171</v>
       </c>
       <c r="H26">
-        <v>18305</v>
+        <v>18309</v>
       </c>
       <c r="I26">
         <v>13771.2</v>
@@ -6134,16 +6134,16 @@
         <v>14417.4</v>
       </c>
       <c r="O26">
-        <v>4533.8</v>
+        <v>4537.8</v>
       </c>
       <c r="P26">
         <v>646.2</v>
       </c>
       <c r="Q26">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="R26">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="S26" t="s">
         <v>206</v>
@@ -6158,10 +6158,10 @@
         <v>531739</v>
       </c>
       <c r="W26">
-        <v>852.6</v>
+        <v>853.4</v>
       </c>
       <c r="X26">
-        <v>121.6</v>
+        <v>121.5</v>
       </c>
       <c r="Y26" t="s">
         <v>299</v>
@@ -6344,7 +6344,7 @@
         <v>986</v>
       </c>
       <c r="H29">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="I29">
         <v>903.4000000000002</v>
@@ -6365,13 +6365,13 @@
         <v>965.6000000000003</v>
       </c>
       <c r="O29">
-        <v>217.6</v>
+        <v>221.6</v>
       </c>
       <c r="P29">
         <v>62.2</v>
       </c>
       <c r="Q29">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="R29">
         <v>8</v>
@@ -6389,7 +6389,7 @@
         <v>65374</v>
       </c>
       <c r="W29">
-        <v>332.9</v>
+        <v>339</v>
       </c>
       <c r="X29">
         <v>95.09999999999999</v>
@@ -6421,7 +6421,7 @@
         <v>12782</v>
       </c>
       <c r="H30">
-        <v>15884</v>
+        <v>15708</v>
       </c>
       <c r="I30">
         <v>13394.8</v>
@@ -6442,13 +6442,13 @@
         <v>13604.7</v>
       </c>
       <c r="O30">
-        <v>2489.2</v>
+        <v>2313.2</v>
       </c>
       <c r="P30">
         <v>209.9</v>
       </c>
       <c r="Q30">
-        <v>18.6</v>
+        <v>17.3</v>
       </c>
       <c r="R30">
         <v>1.8</v>
@@ -6466,10 +6466,10 @@
         <v>1160179</v>
       </c>
       <c r="W30">
-        <v>214.6</v>
+        <v>199.4</v>
       </c>
       <c r="X30">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="Y30" t="s">
         <v>303</v>
@@ -6819,7 +6819,7 @@
         <v>6061</v>
       </c>
       <c r="H3">
-        <v>7196</v>
+        <v>7140</v>
       </c>
       <c r="I3">
         <v>6344.800000000001</v>
@@ -6840,13 +6840,13 @@
         <v>6449.300000000001</v>
       </c>
       <c r="O3">
-        <v>851.2</v>
+        <v>795.2</v>
       </c>
       <c r="P3">
         <v>104.5</v>
       </c>
       <c r="Q3">
-        <v>13.4</v>
+        <v>12.5</v>
       </c>
       <c r="R3">
         <v>1.8</v>
@@ -6864,7 +6864,7 @@
         <v>623529</v>
       </c>
       <c r="W3">
-        <v>136.5</v>
+        <v>127.5</v>
       </c>
       <c r="X3">
         <v>16.8</v>
@@ -6896,7 +6896,7 @@
         <v>8746</v>
       </c>
       <c r="H4">
-        <v>11007</v>
+        <v>11008</v>
       </c>
       <c r="I4">
         <v>9223.6</v>
@@ -6917,7 +6917,7 @@
         <v>9394.5</v>
       </c>
       <c r="O4">
-        <v>1783.4</v>
+        <v>1784.4</v>
       </c>
       <c r="P4">
         <v>170.9</v>
@@ -6941,10 +6941,10 @@
         <v>463819</v>
       </c>
       <c r="W4">
-        <v>384.5</v>
+        <v>384.7</v>
       </c>
       <c r="X4">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="Y4" t="s">
         <v>402</v>
@@ -7127,7 +7127,7 @@
         <v>9062</v>
       </c>
       <c r="H7">
-        <v>10364</v>
+        <v>10363</v>
       </c>
       <c r="I7">
         <v>9671.400000000003</v>
@@ -7148,7 +7148,7 @@
         <v>9932.200000000003</v>
       </c>
       <c r="O7">
-        <v>692.6</v>
+        <v>691.6</v>
       </c>
       <c r="P7">
         <v>260.8</v>
@@ -7172,7 +7172,7 @@
         <v>678927</v>
       </c>
       <c r="W7">
-        <v>102</v>
+        <v>101.9</v>
       </c>
       <c r="X7">
         <v>38.4</v>
@@ -7281,7 +7281,7 @@
         <v>1087</v>
       </c>
       <c r="H9">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="I9">
         <v>1117.4</v>
@@ -7302,13 +7302,13 @@
         <v>1149.8</v>
       </c>
       <c r="O9">
-        <v>93.59999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="P9">
         <v>32.4</v>
       </c>
       <c r="Q9">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="R9">
         <v>3.1</v>
@@ -7326,7 +7326,7 @@
         <v>77501</v>
       </c>
       <c r="W9">
-        <v>120.8</v>
+        <v>123.4</v>
       </c>
       <c r="X9">
         <v>41.8</v>
@@ -7435,7 +7435,7 @@
         <v>33588</v>
       </c>
       <c r="H11">
-        <v>36664</v>
+        <v>36669</v>
       </c>
       <c r="I11">
         <v>34943.8</v>
@@ -7456,7 +7456,7 @@
         <v>35320.3</v>
       </c>
       <c r="O11">
-        <v>1720.2</v>
+        <v>1725.2</v>
       </c>
       <c r="P11">
         <v>376.5</v>
@@ -7480,7 +7480,7 @@
         <v>3902936</v>
       </c>
       <c r="W11">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="X11">
         <v>9.6</v>
@@ -7743,7 +7743,7 @@
         <v>26478</v>
       </c>
       <c r="H15">
-        <v>32453</v>
+        <v>32467</v>
       </c>
       <c r="I15">
         <v>29591.4</v>
@@ -7764,7 +7764,7 @@
         <v>31118.2</v>
       </c>
       <c r="O15">
-        <v>2861.6</v>
+        <v>2875.6</v>
       </c>
       <c r="P15">
         <v>1526.8</v>
@@ -7788,7 +7788,7 @@
         <v>3471014</v>
       </c>
       <c r="W15">
-        <v>82.40000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="X15">
         <v>44</v>
@@ -7820,7 +7820,7 @@
         <v>1925</v>
       </c>
       <c r="H16">
-        <v>2088</v>
+        <v>2110</v>
       </c>
       <c r="I16">
         <v>2060.6</v>
@@ -7841,13 +7841,13 @@
         <v>2127.7</v>
       </c>
       <c r="O16">
-        <v>27.4</v>
+        <v>49.4</v>
       </c>
       <c r="P16">
         <v>67.09999999999999</v>
       </c>
       <c r="Q16">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="R16">
         <v>3.2</v>
@@ -7865,7 +7865,7 @@
         <v>109804</v>
       </c>
       <c r="W16">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="X16">
         <v>61.1</v>
@@ -8128,7 +8128,7 @@
         <v>233</v>
       </c>
       <c r="H20">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I20">
         <v>254.8</v>
@@ -8149,16 +8149,16 @@
         <v>268.5</v>
       </c>
       <c r="O20">
-        <v>-20.8</v>
+        <v>-19.8</v>
       </c>
       <c r="P20">
         <v>13.7</v>
       </c>
       <c r="Q20">
-        <v>-8.199999999999999</v>
+        <v>-7.8</v>
       </c>
       <c r="R20">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="S20" t="s">
         <v>325</v>
@@ -8173,10 +8173,10 @@
         <v>28443</v>
       </c>
       <c r="W20">
-        <v>-73.09999999999999</v>
+        <v>-69.59999999999999</v>
       </c>
       <c r="X20">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="Y20" t="s">
         <v>418</v>
@@ -8205,7 +8205,7 @@
         <v>577</v>
       </c>
       <c r="H21">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="I21">
         <v>563.5999999999999</v>
@@ -8226,16 +8226,16 @@
         <v>598.4999999999999</v>
       </c>
       <c r="O21">
-        <v>146.4</v>
+        <v>135.4</v>
       </c>
       <c r="P21">
         <v>34.9</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R21">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="S21" t="s">
         <v>326</v>
@@ -8250,7 +8250,7 @@
         <v>36223</v>
       </c>
       <c r="W21">
-        <v>404.2</v>
+        <v>373.8</v>
       </c>
       <c r="X21">
         <v>96.3</v>
@@ -8270,46 +8270,46 @@
         <v>10178</v>
       </c>
       <c r="D22">
-        <v>9452</v>
+        <v>9437</v>
       </c>
       <c r="E22">
-        <v>8936</v>
+        <v>8928</v>
       </c>
       <c r="F22">
-        <v>8889</v>
+        <v>8886</v>
       </c>
       <c r="G22">
-        <v>8739</v>
+        <v>8726</v>
       </c>
       <c r="H22">
-        <v>9712</v>
+        <v>9724</v>
       </c>
       <c r="I22">
-        <v>9422.799999999999</v>
+        <v>9414.999999999996</v>
       </c>
       <c r="J22">
-        <v>527.5</v>
+        <v>530.1</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>462.4</v>
+        <v>464.7</v>
       </c>
       <c r="M22">
-        <v>8960.4</v>
+        <v>8950.299999999996</v>
       </c>
       <c r="N22">
-        <v>9885.199999999999</v>
+        <v>9879.699999999997</v>
       </c>
       <c r="O22">
-        <v>289.2</v>
+        <v>309</v>
       </c>
       <c r="P22">
-        <v>462.4</v>
+        <v>464.7</v>
       </c>
       <c r="Q22">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="R22">
         <v>4.9</v>
@@ -8327,10 +8327,10 @@
         <v>996048</v>
       </c>
       <c r="W22">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X22">
-        <v>46.5</v>
+        <v>46.7</v>
       </c>
       <c r="Y22" t="s">
         <v>420</v>
@@ -8359,7 +8359,7 @@
         <v>2151</v>
       </c>
       <c r="H23">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="I23">
         <v>2374</v>
@@ -8380,7 +8380,7 @@
         <v>2473.3</v>
       </c>
       <c r="O23">
-        <v>-105</v>
+        <v>-104</v>
       </c>
       <c r="P23">
         <v>99.3</v>
@@ -8389,7 +8389,7 @@
         <v>-4.4</v>
       </c>
       <c r="R23">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="S23" t="s">
         <v>328</v>
@@ -8404,10 +8404,10 @@
         <v>275272</v>
       </c>
       <c r="W23">
-        <v>-38.1</v>
+        <v>-37.8</v>
       </c>
       <c r="X23">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="Y23" t="s">
         <v>421</v>
@@ -8590,7 +8590,7 @@
         <v>21789</v>
       </c>
       <c r="H26">
-        <v>28097</v>
+        <v>28104</v>
       </c>
       <c r="I26">
         <v>21405.20000000001</v>
@@ -8611,7 +8611,7 @@
         <v>22286.30000000001</v>
       </c>
       <c r="O26">
-        <v>6691.8</v>
+        <v>6698.8</v>
       </c>
       <c r="P26">
         <v>881.1</v>
@@ -8635,7 +8635,7 @@
         <v>1201894</v>
       </c>
       <c r="W26">
-        <v>556.8</v>
+        <v>557.4</v>
       </c>
       <c r="X26">
         <v>73.3</v>
@@ -8821,7 +8821,7 @@
         <v>1457</v>
       </c>
       <c r="H29">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="I29">
         <v>1361.6</v>
@@ -8842,16 +8842,16 @@
         <v>1448</v>
       </c>
       <c r="O29">
-        <v>252.4</v>
+        <v>256.4</v>
       </c>
       <c r="P29">
         <v>86.40000000000001</v>
       </c>
       <c r="Q29">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="R29">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="S29" t="s">
         <v>334</v>
@@ -8866,10 +8866,10 @@
         <v>134197</v>
       </c>
       <c r="W29">
-        <v>188.1</v>
+        <v>191.1</v>
       </c>
       <c r="X29">
-        <v>64.40000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="Y29" t="s">
         <v>427</v>
@@ -8898,7 +8898,7 @@
         <v>18894</v>
       </c>
       <c r="H30">
-        <v>23483</v>
+        <v>23169</v>
       </c>
       <c r="I30">
         <v>19587.4</v>
@@ -8919,13 +8919,13 @@
         <v>19774.9</v>
       </c>
       <c r="O30">
-        <v>3895.6</v>
+        <v>3581.6</v>
       </c>
       <c r="P30">
         <v>187.5</v>
       </c>
       <c r="Q30">
-        <v>19.9</v>
+        <v>18.3</v>
       </c>
       <c r="R30">
         <v>1.1</v>
@@ -8943,7 +8943,7 @@
         <v>2431759</v>
       </c>
       <c r="W30">
-        <v>160.2</v>
+        <v>147.3</v>
       </c>
       <c r="X30">
         <v>7.7</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(65-69).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(65-69).xlsx
@@ -289,28 +289,28 @@
     <t>264.0 (±38.6)</t>
   </si>
   <si>
-    <t>736.4 (±56.0)</t>
+    <t>737.4 (±56.0)</t>
   </si>
   <si>
     <t>193.8 (±46.9)</t>
   </si>
   <si>
-    <t>-3.6 (±5.8)</t>
-  </si>
-  <si>
-    <t>136.2 (±126.7)</t>
+    <t>-8.6 (±5.8)</t>
+  </si>
+  <si>
+    <t>137.2 (±126.7)</t>
   </si>
   <si>
     <t>-77.4 (±72.1)</t>
   </si>
   <si>
-    <t>25.4 (±31.7)</t>
+    <t>24.4 (±31.7)</t>
   </si>
   <si>
     <t>-69.0 (±60.1)</t>
   </si>
   <si>
-    <t>794.8 (±42.9)</t>
+    <t>795.8 (±42.9)</t>
   </si>
   <si>
     <t>245.6 (±59.1)</t>
@@ -340,7 +340,7 @@
     <t>-7.2 (±11.3)</t>
   </si>
   <si>
-    <t>21.8 (±13.8)</t>
+    <t>28.8 (±13.8)</t>
   </si>
   <si>
     <t>141.8 (±183.4)</t>
@@ -364,7 +364,7 @@
     <t>315.2 (±59.8)</t>
   </si>
   <si>
-    <t>34.8 (±29.9)</t>
+    <t>35.8 (±29.9)</t>
   </si>
   <si>
     <t>1268.4 (±40.8)</t>
@@ -382,13 +382,13 @@
     <t>11.2% (±1.8%)</t>
   </si>
   <si>
-    <t>22.7% (±2.1%)</t>
+    <t>22.8% (±2.1%)</t>
   </si>
   <si>
     <t>15.3% (±4.1%)</t>
   </si>
   <si>
-    <t>-2.9% (±4.4%)</t>
+    <t>-7.0% (±4.1%)</t>
   </si>
   <si>
     <t>4.0% (±3.7%)</t>
@@ -397,7 +397,7 @@
     <t>-5.3% (±4.4%)</t>
   </si>
   <si>
-    <t>6.7% (±8.2%)</t>
+    <t>6.4% (±8.2%)</t>
   </si>
   <si>
     <t>-5.3% (±4.1%)</t>
@@ -433,7 +433,7 @@
     <t>-7.6% (±9.8%)</t>
   </si>
   <si>
-    <t>10.3% (±6.8%)</t>
+    <t>13.6% (±7.0%)</t>
   </si>
   <si>
     <t>3.7% (±4.7%)</t>
@@ -457,7 +457,7 @@
     <t>18.7% (±4.1%)</t>
   </si>
   <si>
-    <t>7.6% (±6.6%)</t>
+    <t>7.8% (±6.6%)</t>
   </si>
   <si>
     <t>20.5% (±0.8%)</t>
@@ -475,28 +475,28 @@
     <t>82.2(±12.0)</t>
   </si>
   <si>
-    <t>284.8(±21.7)</t>
+    <t>285.2(±21.7)</t>
   </si>
   <si>
     <t>136.1(±32.9)</t>
   </si>
   <si>
-    <t>-15.6(±25.1)</t>
-  </si>
-  <si>
-    <t>37.5(±34.9)</t>
+    <t>-37.2(±25.1)</t>
+  </si>
+  <si>
+    <t>37.8(±34.9)</t>
   </si>
   <si>
     <t>-47.3(±44.1)</t>
   </si>
   <si>
-    <t>56.0(±69.8)</t>
+    <t>53.8(±69.8)</t>
   </si>
   <si>
     <t>-37.2(±32.4)</t>
   </si>
   <si>
-    <t>38.4(±2.1)</t>
+    <t>38.5(±2.1)</t>
   </si>
   <si>
     <t>76.0(±18.3)</t>
@@ -526,7 +526,7 @@
     <t>-50.0(±78.5)</t>
   </si>
   <si>
-    <t>113.1(±71.7)</t>
+    <t>149.5(±71.6)</t>
   </si>
   <si>
     <t>28.2(±36.5)</t>
@@ -550,7 +550,7 @@
     <t>173.8(±33.0)</t>
   </si>
   <si>
-    <t>50.6(±43.4)</t>
+    <t>52.0(±43.5)</t>
   </si>
   <si>
     <t>99.7(±3.3)</t>
@@ -670,34 +670,34 @@
     <t>458.4 (±51.3)</t>
   </si>
   <si>
-    <t>4.0 (±13.3)</t>
-  </si>
-  <si>
-    <t>555.4 (±139.5)</t>
+    <t>-6.0 (±13.3)</t>
+  </si>
+  <si>
+    <t>556.4 (±139.5)</t>
   </si>
   <si>
     <t>-60.0 (±73.4)</t>
   </si>
   <si>
-    <t>70.2 (±16.0)</t>
+    <t>77.2 (±16.0)</t>
   </si>
   <si>
     <t>-259.6 (±124.1)</t>
   </si>
   <si>
-    <t>930.4 (±392.0)</t>
+    <t>933.4 (±392.0)</t>
   </si>
   <si>
     <t>347.8 (±131.8)</t>
   </si>
   <si>
-    <t>1655.6 (±252.7)</t>
+    <t>1654.6 (±252.7)</t>
   </si>
   <si>
     <t>6.2 (±5.4)</t>
   </si>
   <si>
-    <t>2343.0 (±1010.2)</t>
+    <t>2344.0 (±1010.2)</t>
   </si>
   <si>
     <t>78.6 (±30.8)</t>
@@ -712,16 +712,16 @@
     <t>1.2 (±21.9)</t>
   </si>
   <si>
-    <t>-12.6 (±6.8)</t>
-  </si>
-  <si>
-    <t>113.6 (±27.6)</t>
+    <t>-11.6 (±6.8)</t>
+  </si>
+  <si>
+    <t>129.6 (±27.6)</t>
   </si>
   <si>
     <t>167.2 (±284.2)</t>
   </si>
   <si>
-    <t>-60.0 (±67.0)</t>
+    <t>-58.0 (±67.0)</t>
   </si>
   <si>
     <t>7084.0 (±1010.1)</t>
@@ -763,7 +763,7 @@
     <t>18.3% (±2.4%)</t>
   </si>
   <si>
-    <t>1.8% (±5.8%)</t>
+    <t>-2.7% (±5.6%)</t>
   </si>
   <si>
     <t>8.9% (±2.4%)</t>
@@ -772,7 +772,7 @@
     <t>-2.7% (±3.2%)</t>
   </si>
   <si>
-    <t>9.5% (±2.3%)</t>
+    <t>10.5% (±2.4%)</t>
   </si>
   <si>
     <t>-10.6% (±4.4%)</t>
@@ -805,16 +805,16 @@
     <t>0.7% (±11.7%)</t>
   </si>
   <si>
-    <t>-7.9% (±3.8%)</t>
-  </si>
-  <si>
-    <t>32.3% (±9.6%)</t>
+    <t>-7.3% (±3.8%)</t>
+  </si>
+  <si>
+    <t>36.9% (±10.0%)</t>
   </si>
   <si>
     <t>3.0% (±5.0%)</t>
   </si>
   <si>
-    <t>-4.2% (±4.3%)</t>
+    <t>-4.0% (±4.3%)</t>
   </si>
   <si>
     <t>29.5% (±5.2%)</t>
@@ -856,28 +856,28 @@
     <t>366.9(±41.1)</t>
   </si>
   <si>
-    <t>18.3(±61.0)</t>
-  </si>
-  <si>
-    <t>175.9(±44.2)</t>
+    <t>-27.5(±61.0)</t>
+  </si>
+  <si>
+    <t>176.3(±44.1)</t>
   </si>
   <si>
     <t>-38.5(±47.1)</t>
   </si>
   <si>
-    <t>218.6(±49.9)</t>
+    <t>240.4(±49.9)</t>
   </si>
   <si>
     <t>-151.6(±72.5)</t>
   </si>
   <si>
-    <t>50.7(±21.3)</t>
+    <t>50.9(±21.3)</t>
   </si>
   <si>
     <t>121.6(±46.1)</t>
   </si>
   <si>
-    <t>597.5(±91.3)</t>
+    <t>597.2(±91.2)</t>
   </si>
   <si>
     <t>72.5(±63.2)</t>
@@ -898,16 +898,16 @@
     <t>8.8(±161.1)</t>
   </si>
   <si>
-    <t>-89.8(±48.5)</t>
-  </si>
-  <si>
-    <t>670.0(±162.8)</t>
+    <t>-82.6(±48.4)</t>
+  </si>
+  <si>
+    <t>764.4(±162.8)</t>
   </si>
   <si>
     <t>33.9(±57.6)</t>
   </si>
   <si>
-    <t>-43.8(±48.9)</t>
+    <t>-42.3(±48.9)</t>
   </si>
   <si>
     <t>646.8(±92.2)</t>
@@ -1039,40 +1039,40 @@
     <t>795.2 (±104.5)</t>
   </si>
   <si>
-    <t>1784.4 (±170.9)</t>
+    <t>1785.4 (±170.9)</t>
   </si>
   <si>
     <t>652.2 (±78.1)</t>
   </si>
   <si>
-    <t>0.4 (±17.0)</t>
-  </si>
-  <si>
-    <t>691.6 (±260.8)</t>
+    <t>-14.6 (±17.0)</t>
+  </si>
+  <si>
+    <t>693.6 (±260.8)</t>
   </si>
   <si>
     <t>-137.4 (±143.2)</t>
   </si>
   <si>
-    <t>95.6 (±32.4)</t>
+    <t>101.6 (±32.4)</t>
   </si>
   <si>
     <t>-328.6 (±172.9)</t>
   </si>
   <si>
-    <t>1725.2 (±376.5)</t>
+    <t>1729.2 (±376.5)</t>
   </si>
   <si>
     <t>593.4 (±184.6)</t>
   </si>
   <si>
-    <t>2672.2 (±356.6)</t>
+    <t>2671.2 (±356.6)</t>
   </si>
   <si>
     <t>15.6 (±6.6)</t>
   </si>
   <si>
-    <t>2875.6 (±1526.8)</t>
+    <t>2876.6 (±1526.8)</t>
   </si>
   <si>
     <t>49.4 (±67.1)</t>
@@ -1087,16 +1087,16 @@
     <t>14.8 (±25.8)</t>
   </si>
   <si>
-    <t>-19.8 (±13.7)</t>
-  </si>
-  <si>
-    <t>135.4 (±34.9)</t>
+    <t>-18.8 (±13.7)</t>
+  </si>
+  <si>
+    <t>158.4 (±34.9)</t>
   </si>
   <si>
     <t>309.0 (±464.7)</t>
   </si>
   <si>
-    <t>-104.0 (±99.3)</t>
+    <t>-102.0 (±99.3)</t>
   </si>
   <si>
     <t>10171.6 (±1499.3)</t>
@@ -1114,7 +1114,7 @@
     <t>968.0 (±187.1)</t>
   </si>
   <si>
-    <t>256.4 (±86.4)</t>
+    <t>257.4 (±86.4)</t>
   </si>
   <si>
     <t>3581.6 (±187.5)</t>
@@ -1132,22 +1132,22 @@
     <t>12.5% (±1.8%)</t>
   </si>
   <si>
-    <t>19.3% (±2.1%)</t>
+    <t>19.4% (±2.2%)</t>
   </si>
   <si>
     <t>17.3% (±2.4%)</t>
   </si>
   <si>
-    <t>0.1% (±4.7%)</t>
-  </si>
-  <si>
-    <t>7.2% (±2.9%)</t>
+    <t>-4.2% (±4.6%)</t>
+  </si>
+  <si>
+    <t>7.2% (±2.8%)</t>
   </si>
   <si>
     <t>-3.7% (±3.7%)</t>
   </si>
   <si>
-    <t>8.6% (±3.1%)</t>
+    <t>9.1% (±3.1%)</t>
   </si>
   <si>
     <t>-8.8% (±4.0%)</t>
@@ -1159,7 +1159,7 @@
     <t>9.9% (±3.3%)</t>
   </si>
   <si>
-    <t>23.3% (±3.7%)</t>
+    <t>23.3% (±3.8%)</t>
   </si>
   <si>
     <t>12.3% (±5.5%)</t>
@@ -1180,16 +1180,16 @@
     <t>5.7% (±9.6%)</t>
   </si>
   <si>
-    <t>-7.8% (±4.7%)</t>
-  </si>
-  <si>
-    <t>24.0% (±7.2%)</t>
+    <t>-7.4% (±4.7%)</t>
+  </si>
+  <si>
+    <t>28.1% (±7.5%)</t>
   </si>
   <si>
     <t>3.3% (±4.9%)</t>
   </si>
   <si>
-    <t>-4.4% (±3.8%)</t>
+    <t>-4.3% (±3.8%)</t>
   </si>
   <si>
     <t>27.5% (±5.0%)</t>
@@ -1207,7 +1207,7 @@
     <t>20.2% (±4.5%)</t>
   </si>
   <si>
-    <t>18.8% (±7.1%)</t>
+    <t>18.9% (±7.1%)</t>
   </si>
   <si>
     <t>18.3% (±1.1%)</t>
@@ -1225,40 +1225,40 @@
     <t>127.5(±16.8)</t>
   </si>
   <si>
-    <t>384.7(±36.9)</t>
+    <t>384.9(±36.9)</t>
   </si>
   <si>
     <t>244.0(±29.2)</t>
   </si>
   <si>
-    <t>0.9(±37.8)</t>
-  </si>
-  <si>
-    <t>101.9(±38.4)</t>
+    <t>-32.5(±37.8)</t>
+  </si>
+  <si>
+    <t>102.2(±38.4)</t>
   </si>
   <si>
     <t>-43.0(±44.8)</t>
   </si>
   <si>
-    <t>123.4(±41.8)</t>
+    <t>131.1(±41.8)</t>
   </si>
   <si>
     <t>-92.1(±48.5)</t>
   </si>
   <si>
-    <t>44.2(±9.6)</t>
+    <t>44.3(±9.7)</t>
   </si>
   <si>
     <t>97.4(±30.3)</t>
   </si>
   <si>
-    <t>415.1(±55.4)</t>
+    <t>415.0(±55.4)</t>
   </si>
   <si>
     <t>91.9(±38.8)</t>
   </si>
   <si>
-    <t>82.8(±44.0)</t>
+    <t>82.9(±44.0)</t>
   </si>
   <si>
     <t>45.0(±61.1)</t>
@@ -1273,16 +1273,16 @@
     <t>53.8(±93.8)</t>
   </si>
   <si>
-    <t>-69.6(±48.2)</t>
-  </si>
-  <si>
-    <t>373.8(±96.3)</t>
+    <t>-66.1(±48.2)</t>
+  </si>
+  <si>
+    <t>437.3(±96.3)</t>
   </si>
   <si>
     <t>31.0(±46.7)</t>
   </si>
   <si>
-    <t>-37.8(±36.1)</t>
+    <t>-37.1(±36.1)</t>
   </si>
   <si>
     <t>415.5(±61.3)</t>
@@ -1300,7 +1300,7 @@
     <t>293.9(±56.8)</t>
   </si>
   <si>
-    <t>191.1(±64.3)</t>
+    <t>191.8(±64.4)</t>
   </si>
   <si>
     <t>147.3(±7.7)</t>
@@ -1942,7 +1942,7 @@
         <v>3101</v>
       </c>
       <c r="H4">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="I4">
         <v>3240.6</v>
@@ -1963,13 +1963,13 @@
         <v>3296.6</v>
       </c>
       <c r="O4">
-        <v>736.4</v>
+        <v>737.4</v>
       </c>
       <c r="P4">
         <v>56</v>
       </c>
       <c r="Q4">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="R4">
         <v>2.1</v>
@@ -1987,7 +1987,7 @@
         <v>258560</v>
       </c>
       <c r="W4">
-        <v>284.8</v>
+        <v>285.2</v>
       </c>
       <c r="X4">
         <v>21.7</v>
@@ -2096,7 +2096,7 @@
         <v>119</v>
       </c>
       <c r="H6">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I6">
         <v>123.6</v>
@@ -2117,16 +2117,16 @@
         <v>129.4</v>
       </c>
       <c r="O6">
-        <v>-3.6</v>
+        <v>-8.6</v>
       </c>
       <c r="P6">
         <v>5.8</v>
       </c>
       <c r="Q6">
-        <v>-2.9</v>
+        <v>-7</v>
       </c>
       <c r="R6">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="S6" t="s">
         <v>61</v>
@@ -2141,7 +2141,7 @@
         <v>23116</v>
       </c>
       <c r="W6">
-        <v>-15.6</v>
+        <v>-37.2</v>
       </c>
       <c r="X6">
         <v>25.1</v>
@@ -2173,10 +2173,10 @@
         <v>3109</v>
       </c>
       <c r="H7">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="I7">
-        <v>3401.799999999999</v>
+        <v>3401.8</v>
       </c>
       <c r="J7">
         <v>144.5</v>
@@ -2188,13 +2188,13 @@
         <v>126.7</v>
       </c>
       <c r="M7">
-        <v>3275.099999999999</v>
+        <v>3275.1</v>
       </c>
       <c r="N7">
-        <v>3528.499999999999</v>
+        <v>3528.5</v>
       </c>
       <c r="O7">
-        <v>136.2</v>
+        <v>137.2</v>
       </c>
       <c r="P7">
         <v>126.7</v>
@@ -2218,7 +2218,7 @@
         <v>363248</v>
       </c>
       <c r="W7">
-        <v>37.5</v>
+        <v>37.8</v>
       </c>
       <c r="X7">
         <v>34.9</v>
@@ -2253,7 +2253,7 @@
         <v>1385</v>
       </c>
       <c r="I8">
-        <v>1462.399999999999</v>
+        <v>1462.4</v>
       </c>
       <c r="J8">
         <v>82.3</v>
@@ -2265,10 +2265,10 @@
         <v>72.09999999999999</v>
       </c>
       <c r="M8">
-        <v>1390.299999999999</v>
+        <v>1390.3</v>
       </c>
       <c r="N8">
-        <v>1534.499999999999</v>
+        <v>1534.5</v>
       </c>
       <c r="O8">
         <v>-77.40000000000001</v>
@@ -2327,7 +2327,7 @@
         <v>335</v>
       </c>
       <c r="H9">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I9">
         <v>379.6</v>
@@ -2348,13 +2348,13 @@
         <v>411.3</v>
       </c>
       <c r="O9">
-        <v>25.4</v>
+        <v>24.4</v>
       </c>
       <c r="P9">
         <v>31.7</v>
       </c>
       <c r="Q9">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="R9">
         <v>8.199999999999999</v>
@@ -2372,7 +2372,7 @@
         <v>45393</v>
       </c>
       <c r="W9">
-        <v>56</v>
+        <v>53.8</v>
       </c>
       <c r="X9">
         <v>69.8</v>
@@ -2481,7 +2481,7 @@
         <v>11608</v>
       </c>
       <c r="H11">
-        <v>12622</v>
+        <v>12623</v>
       </c>
       <c r="I11">
         <v>11827.2</v>
@@ -2502,7 +2502,7 @@
         <v>11870.1</v>
       </c>
       <c r="O11">
-        <v>794.8</v>
+        <v>795.8</v>
       </c>
       <c r="P11">
         <v>42.9</v>
@@ -2526,7 +2526,7 @@
         <v>2067425</v>
       </c>
       <c r="W11">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="X11">
         <v>2.1</v>
@@ -2638,7 +2638,7 @@
         <v>5361</v>
       </c>
       <c r="I13">
-        <v>4344.400000000001</v>
+        <v>4344.4</v>
       </c>
       <c r="J13">
         <v>146.1</v>
@@ -2650,10 +2650,10 @@
         <v>128.1</v>
       </c>
       <c r="M13">
-        <v>4216.3</v>
+        <v>4216.299999999999</v>
       </c>
       <c r="N13">
-        <v>4472.500000000001</v>
+        <v>4472.5</v>
       </c>
       <c r="O13">
         <v>1016.6</v>
@@ -2869,7 +2869,7 @@
         <v>726</v>
       </c>
       <c r="I16">
-        <v>755.1999999999998</v>
+        <v>755.2</v>
       </c>
       <c r="J16">
         <v>44.9</v>
@@ -2881,10 +2881,10 @@
         <v>39.4</v>
       </c>
       <c r="M16">
-        <v>715.7999999999998</v>
+        <v>715.8000000000001</v>
       </c>
       <c r="N16">
-        <v>794.5999999999998</v>
+        <v>794.6</v>
       </c>
       <c r="O16">
         <v>-29.2</v>
@@ -2946,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="I17">
-        <v>7.000000000000002</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -2958,10 +2958,10 @@
         <v>2.1</v>
       </c>
       <c r="M17">
-        <v>4.900000000000002</v>
+        <v>4.9</v>
       </c>
       <c r="N17">
-        <v>9.100000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="O17">
         <v>-2</v>
@@ -3100,7 +3100,7 @@
         <v>107</v>
       </c>
       <c r="I19">
-        <v>93.39999999999996</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="J19">
         <v>8.300000000000001</v>
@@ -3112,7 +3112,7 @@
         <v>7.3</v>
       </c>
       <c r="M19">
-        <v>86.09999999999997</v>
+        <v>86.10000000000001</v>
       </c>
       <c r="N19">
         <v>100.7</v>
@@ -3177,7 +3177,7 @@
         <v>88</v>
       </c>
       <c r="I20">
-        <v>95.19999999999997</v>
+        <v>95.2</v>
       </c>
       <c r="J20">
         <v>12.9</v>
@@ -3189,7 +3189,7 @@
         <v>11.3</v>
       </c>
       <c r="M20">
-        <v>83.89999999999998</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="N20">
         <v>106.5</v>
@@ -3251,7 +3251,7 @@
         <v>204</v>
       </c>
       <c r="H21">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="I21">
         <v>212.2</v>
@@ -3272,16 +3272,16 @@
         <v>226</v>
       </c>
       <c r="O21">
-        <v>21.8</v>
+        <v>28.8</v>
       </c>
       <c r="P21">
         <v>13.8</v>
       </c>
       <c r="Q21">
-        <v>10.3</v>
+        <v>13.6</v>
       </c>
       <c r="R21">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="S21" t="s">
         <v>76</v>
@@ -3296,10 +3296,10 @@
         <v>19269</v>
       </c>
       <c r="W21">
-        <v>113.1</v>
+        <v>149.5</v>
       </c>
       <c r="X21">
-        <v>71.7</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="Y21" t="s">
         <v>169</v>
@@ -3408,7 +3408,7 @@
         <v>897</v>
       </c>
       <c r="I23">
-        <v>941.0000000000001</v>
+        <v>941</v>
       </c>
       <c r="J23">
         <v>39.4</v>
@@ -3420,10 +3420,10 @@
         <v>34.5</v>
       </c>
       <c r="M23">
-        <v>906.5000000000001</v>
+        <v>906.5</v>
       </c>
       <c r="N23">
-        <v>975.5000000000001</v>
+        <v>975.5</v>
       </c>
       <c r="O23">
         <v>-44</v>
@@ -3485,7 +3485,7 @@
         <v>16085</v>
       </c>
       <c r="I24">
-        <v>12997.40000000001</v>
+        <v>12997.4</v>
       </c>
       <c r="J24">
         <v>566.6</v>
@@ -3500,7 +3500,7 @@
         <v>12500.8</v>
       </c>
       <c r="N24">
-        <v>13494.00000000001</v>
+        <v>13494</v>
       </c>
       <c r="O24">
         <v>3087.6</v>
@@ -3639,7 +3639,7 @@
         <v>9795</v>
       </c>
       <c r="I26">
-        <v>7633.999999999999</v>
+        <v>7634</v>
       </c>
       <c r="J26">
         <v>289</v>
@@ -3651,10 +3651,10 @@
         <v>253.3</v>
       </c>
       <c r="M26">
-        <v>7380.699999999999</v>
+        <v>7380.7</v>
       </c>
       <c r="N26">
-        <v>7887.299999999999</v>
+        <v>7887.3</v>
       </c>
       <c r="O26">
         <v>2161</v>
@@ -3716,7 +3716,7 @@
         <v>4080</v>
       </c>
       <c r="I27">
-        <v>3442.799999999999</v>
+        <v>3442.8</v>
       </c>
       <c r="J27">
         <v>134.3</v>
@@ -3728,10 +3728,10 @@
         <v>117.7</v>
       </c>
       <c r="M27">
-        <v>3325.099999999999</v>
+        <v>3325.1</v>
       </c>
       <c r="N27">
-        <v>3560.499999999999</v>
+        <v>3560.5</v>
       </c>
       <c r="O27">
         <v>637.2</v>
@@ -3867,10 +3867,10 @@
         <v>471</v>
       </c>
       <c r="H29">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I29">
-        <v>458.1999999999999</v>
+        <v>458.2</v>
       </c>
       <c r="J29">
         <v>34.1</v>
@@ -3885,16 +3885,16 @@
         <v>428.3</v>
       </c>
       <c r="N29">
-        <v>488.0999999999999</v>
+        <v>488.1</v>
       </c>
       <c r="O29">
-        <v>34.8</v>
+        <v>35.8</v>
       </c>
       <c r="P29">
         <v>29.9</v>
       </c>
       <c r="Q29">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="R29">
         <v>6.6</v>
@@ -3912,10 +3912,10 @@
         <v>68823</v>
       </c>
       <c r="W29">
-        <v>50.6</v>
+        <v>52</v>
       </c>
       <c r="X29">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="Y29" t="s">
         <v>177</v>
@@ -3947,7 +3947,7 @@
         <v>7461</v>
       </c>
       <c r="I30">
-        <v>6192.599999999999</v>
+        <v>6192.6</v>
       </c>
       <c r="J30">
         <v>46.5</v>
@@ -3959,10 +3959,10 @@
         <v>40.8</v>
       </c>
       <c r="M30">
-        <v>6151.799999999998</v>
+        <v>6151.8</v>
       </c>
       <c r="N30">
-        <v>6233.399999999999</v>
+        <v>6233.400000000001</v>
       </c>
       <c r="O30">
         <v>1268.4</v>
@@ -4280,7 +4280,7 @@
         <v>100.8</v>
       </c>
       <c r="M2">
-        <v>2683.199999999999</v>
+        <v>2683.2</v>
       </c>
       <c r="N2">
         <v>2884.8</v>
@@ -4422,7 +4422,7 @@
         <v>7031</v>
       </c>
       <c r="I4">
-        <v>5983.000000000001</v>
+        <v>5983</v>
       </c>
       <c r="J4">
         <v>141.3</v>
@@ -4434,10 +4434,10 @@
         <v>123.9</v>
       </c>
       <c r="M4">
-        <v>5859.100000000001</v>
+        <v>5859.1</v>
       </c>
       <c r="N4">
-        <v>6106.900000000001</v>
+        <v>6106.9</v>
       </c>
       <c r="O4">
         <v>1048</v>
@@ -4514,7 +4514,7 @@
         <v>2450.3</v>
       </c>
       <c r="N5">
-        <v>2552.900000000001</v>
+        <v>2552.9</v>
       </c>
       <c r="O5">
         <v>458.4</v>
@@ -4573,7 +4573,7 @@
         <v>221</v>
       </c>
       <c r="H6">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="I6">
         <v>220</v>
@@ -4594,16 +4594,16 @@
         <v>233.3</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="P6">
         <v>13.3</v>
       </c>
       <c r="Q6">
-        <v>1.8</v>
+        <v>-2.7</v>
       </c>
       <c r="R6">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="S6" t="s">
         <v>186</v>
@@ -4618,7 +4618,7 @@
         <v>21813</v>
       </c>
       <c r="W6">
-        <v>18.3</v>
+        <v>-27.5</v>
       </c>
       <c r="X6">
         <v>61</v>
@@ -4650,10 +4650,10 @@
         <v>5953</v>
       </c>
       <c r="H7">
-        <v>6825</v>
+        <v>6826</v>
       </c>
       <c r="I7">
-        <v>6269.600000000001</v>
+        <v>6269.6</v>
       </c>
       <c r="J7">
         <v>159.2</v>
@@ -4665,13 +4665,13 @@
         <v>139.5</v>
       </c>
       <c r="M7">
-        <v>6130.100000000001</v>
+        <v>6130.1</v>
       </c>
       <c r="N7">
-        <v>6409.100000000001</v>
+        <v>6409.1</v>
       </c>
       <c r="O7">
-        <v>555.4</v>
+        <v>556.4</v>
       </c>
       <c r="P7">
         <v>139.5</v>
@@ -4695,10 +4695,10 @@
         <v>315679</v>
       </c>
       <c r="W7">
-        <v>175.9</v>
+        <v>176.3</v>
       </c>
       <c r="X7">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="Y7" t="s">
         <v>280</v>
@@ -4745,7 +4745,7 @@
         <v>2131.6</v>
       </c>
       <c r="N8">
-        <v>2278.400000000001</v>
+        <v>2278.4</v>
       </c>
       <c r="O8">
         <v>-60</v>
@@ -4804,10 +4804,10 @@
         <v>752</v>
       </c>
       <c r="H9">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="I9">
-        <v>737.8000000000001</v>
+        <v>737.8</v>
       </c>
       <c r="J9">
         <v>18.2</v>
@@ -4819,22 +4819,22 @@
         <v>16</v>
       </c>
       <c r="M9">
-        <v>721.8000000000001</v>
+        <v>721.8</v>
       </c>
       <c r="N9">
-        <v>753.8000000000001</v>
+        <v>753.8</v>
       </c>
       <c r="O9">
-        <v>70.2</v>
+        <v>77.2</v>
       </c>
       <c r="P9">
         <v>16</v>
       </c>
       <c r="Q9">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="R9">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S9" t="s">
         <v>189</v>
@@ -4849,7 +4849,7 @@
         <v>32108</v>
       </c>
       <c r="W9">
-        <v>218.6</v>
+        <v>240.4</v>
       </c>
       <c r="X9">
         <v>49.9</v>
@@ -4958,7 +4958,7 @@
         <v>21980</v>
       </c>
       <c r="H11">
-        <v>24047</v>
+        <v>24050</v>
       </c>
       <c r="I11">
         <v>23116.6</v>
@@ -4979,7 +4979,7 @@
         <v>23508.6</v>
       </c>
       <c r="O11">
-        <v>930.4</v>
+        <v>933.4</v>
       </c>
       <c r="P11">
         <v>392</v>
@@ -5003,7 +5003,7 @@
         <v>1835511</v>
       </c>
       <c r="W11">
-        <v>50.7</v>
+        <v>50.9</v>
       </c>
       <c r="X11">
         <v>21.3</v>
@@ -5112,7 +5112,7 @@
         <v>7279</v>
       </c>
       <c r="H13">
-        <v>8795</v>
+        <v>8794</v>
       </c>
       <c r="I13">
         <v>7139.4</v>
@@ -5133,7 +5133,7 @@
         <v>7392.099999999999</v>
       </c>
       <c r="O13">
-        <v>1655.6</v>
+        <v>1654.6</v>
       </c>
       <c r="P13">
         <v>252.7</v>
@@ -5157,10 +5157,10 @@
         <v>277065</v>
       </c>
       <c r="W13">
-        <v>597.5</v>
+        <v>597.2</v>
       </c>
       <c r="X13">
-        <v>91.3</v>
+        <v>91.2</v>
       </c>
       <c r="Y13" t="s">
         <v>286</v>
@@ -5192,7 +5192,7 @@
         <v>86</v>
       </c>
       <c r="I14">
-        <v>79.79999999999998</v>
+        <v>79.8</v>
       </c>
       <c r="J14">
         <v>6.2</v>
@@ -5204,10 +5204,10 @@
         <v>5.4</v>
       </c>
       <c r="M14">
-        <v>74.39999999999998</v>
+        <v>74.39999999999999</v>
       </c>
       <c r="N14">
-        <v>85.19999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="O14">
         <v>6.2</v>
@@ -5266,7 +5266,7 @@
         <v>16617</v>
       </c>
       <c r="H15">
-        <v>20951</v>
+        <v>20952</v>
       </c>
       <c r="I15">
         <v>18608</v>
@@ -5287,7 +5287,7 @@
         <v>19618.2</v>
       </c>
       <c r="O15">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="P15">
         <v>1010.2</v>
@@ -5651,7 +5651,7 @@
         <v>153</v>
       </c>
       <c r="H20">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I20">
         <v>159.6</v>
@@ -5672,13 +5672,13 @@
         <v>166.4</v>
       </c>
       <c r="O20">
-        <v>-12.6</v>
+        <v>-11.6</v>
       </c>
       <c r="P20">
         <v>6.8</v>
       </c>
       <c r="Q20">
-        <v>-7.9</v>
+        <v>-7.3</v>
       </c>
       <c r="R20">
         <v>3.8</v>
@@ -5696,10 +5696,10 @@
         <v>14037</v>
       </c>
       <c r="W20">
-        <v>-89.8</v>
+        <v>-82.59999999999999</v>
       </c>
       <c r="X20">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="Y20" t="s">
         <v>293</v>
@@ -5728,7 +5728,7 @@
         <v>373</v>
       </c>
       <c r="H21">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="I21">
         <v>351.4</v>
@@ -5749,16 +5749,16 @@
         <v>379</v>
       </c>
       <c r="O21">
-        <v>113.6</v>
+        <v>129.6</v>
       </c>
       <c r="P21">
         <v>27.6</v>
       </c>
       <c r="Q21">
-        <v>32.3</v>
+        <v>36.9</v>
       </c>
       <c r="R21">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="S21" t="s">
         <v>201</v>
@@ -5773,7 +5773,7 @@
         <v>16954</v>
       </c>
       <c r="W21">
-        <v>670</v>
+        <v>764.4</v>
       </c>
       <c r="X21">
         <v>162.8</v>
@@ -5808,7 +5808,7 @@
         <v>5750</v>
       </c>
       <c r="I22">
-        <v>5582.799999999997</v>
+        <v>5582.8</v>
       </c>
       <c r="J22">
         <v>324.2</v>
@@ -5820,10 +5820,10 @@
         <v>284.2</v>
       </c>
       <c r="M22">
-        <v>5298.599999999998</v>
+        <v>5298.6</v>
       </c>
       <c r="N22">
-        <v>5866.999999999997</v>
+        <v>5867</v>
       </c>
       <c r="O22">
         <v>167.2</v>
@@ -5882,7 +5882,7 @@
         <v>1296</v>
       </c>
       <c r="H23">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="I23">
         <v>1433</v>
@@ -5903,13 +5903,13 @@
         <v>1500</v>
       </c>
       <c r="O23">
-        <v>-60</v>
+        <v>-58</v>
       </c>
       <c r="P23">
         <v>67</v>
       </c>
       <c r="Q23">
-        <v>-4.2</v>
+        <v>-4</v>
       </c>
       <c r="R23">
         <v>4.3</v>
@@ -5927,7 +5927,7 @@
         <v>137044</v>
       </c>
       <c r="W23">
-        <v>-43.8</v>
+        <v>-42.3</v>
       </c>
       <c r="X23">
         <v>48.9</v>
@@ -6039,7 +6039,7 @@
         <v>4163</v>
       </c>
       <c r="I25">
-        <v>3731.000000000001</v>
+        <v>3731</v>
       </c>
       <c r="J25">
         <v>75.09999999999999</v>
@@ -6051,10 +6051,10 @@
         <v>65.8</v>
       </c>
       <c r="M25">
-        <v>3665.200000000001</v>
+        <v>3665.2</v>
       </c>
       <c r="N25">
-        <v>3796.800000000001</v>
+        <v>3796.8</v>
       </c>
       <c r="O25">
         <v>432</v>
@@ -6193,7 +6193,7 @@
         <v>7341</v>
       </c>
       <c r="I27">
-        <v>5620.000000000001</v>
+        <v>5620</v>
       </c>
       <c r="J27">
         <v>222.4</v>
@@ -6205,10 +6205,10 @@
         <v>194.9</v>
       </c>
       <c r="M27">
-        <v>5425.100000000001</v>
+        <v>5425.1</v>
       </c>
       <c r="N27">
-        <v>5814.900000000001</v>
+        <v>5814.9</v>
       </c>
       <c r="O27">
         <v>1721</v>
@@ -6270,7 +6270,7 @@
         <v>3755</v>
       </c>
       <c r="I28">
-        <v>3102.199999999998</v>
+        <v>3102.2</v>
       </c>
       <c r="J28">
         <v>149.4</v>
@@ -6282,10 +6282,10 @@
         <v>131</v>
       </c>
       <c r="M28">
-        <v>2971.199999999998</v>
+        <v>2971.2</v>
       </c>
       <c r="N28">
-        <v>3233.199999999998</v>
+        <v>3233.2</v>
       </c>
       <c r="O28">
         <v>652.8</v>
@@ -6347,7 +6347,7 @@
         <v>1125</v>
       </c>
       <c r="I29">
-        <v>903.4000000000002</v>
+        <v>903.4</v>
       </c>
       <c r="J29">
         <v>71</v>
@@ -6359,10 +6359,10 @@
         <v>62.2</v>
       </c>
       <c r="M29">
-        <v>841.2000000000002</v>
+        <v>841.1999999999999</v>
       </c>
       <c r="N29">
-        <v>965.6000000000003</v>
+        <v>965.6</v>
       </c>
       <c r="O29">
         <v>221.6</v>
@@ -6822,7 +6822,7 @@
         <v>7140</v>
       </c>
       <c r="I3">
-        <v>6344.800000000001</v>
+        <v>6344.8</v>
       </c>
       <c r="J3">
         <v>119.2</v>
@@ -6834,10 +6834,10 @@
         <v>104.5</v>
       </c>
       <c r="M3">
-        <v>6240.300000000001</v>
+        <v>6240.3</v>
       </c>
       <c r="N3">
-        <v>6449.300000000001</v>
+        <v>6449.3</v>
       </c>
       <c r="O3">
         <v>795.2</v>
@@ -6896,7 +6896,7 @@
         <v>8746</v>
       </c>
       <c r="H4">
-        <v>11008</v>
+        <v>11009</v>
       </c>
       <c r="I4">
         <v>9223.6</v>
@@ -6917,16 +6917,16 @@
         <v>9394.5</v>
       </c>
       <c r="O4">
-        <v>1784.4</v>
+        <v>1785.4</v>
       </c>
       <c r="P4">
         <v>170.9</v>
       </c>
       <c r="Q4">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="R4">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="s">
         <v>309</v>
@@ -6941,7 +6941,7 @@
         <v>463819</v>
       </c>
       <c r="W4">
-        <v>384.7</v>
+        <v>384.9</v>
       </c>
       <c r="X4">
         <v>36.9</v>
@@ -6976,7 +6976,7 @@
         <v>4423</v>
       </c>
       <c r="I5">
-        <v>3770.799999999999</v>
+        <v>3770.8</v>
       </c>
       <c r="J5">
         <v>89.09999999999999</v>
@@ -6988,10 +6988,10 @@
         <v>78.09999999999999</v>
       </c>
       <c r="M5">
-        <v>3692.699999999999</v>
+        <v>3692.7</v>
       </c>
       <c r="N5">
-        <v>3848.899999999999</v>
+        <v>3848.9</v>
       </c>
       <c r="O5">
         <v>652.2</v>
@@ -7050,7 +7050,7 @@
         <v>340</v>
       </c>
       <c r="H6">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="I6">
         <v>343.6</v>
@@ -7071,16 +7071,16 @@
         <v>360.6</v>
       </c>
       <c r="O6">
-        <v>0.4</v>
+        <v>-14.6</v>
       </c>
       <c r="P6">
         <v>17</v>
       </c>
       <c r="Q6">
-        <v>0.1</v>
+        <v>-4.2</v>
       </c>
       <c r="R6">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="S6" t="s">
         <v>311</v>
@@ -7095,7 +7095,7 @@
         <v>44929</v>
       </c>
       <c r="W6">
-        <v>0.9</v>
+        <v>-32.5</v>
       </c>
       <c r="X6">
         <v>37.8</v>
@@ -7127,10 +7127,10 @@
         <v>9062</v>
       </c>
       <c r="H7">
-        <v>10363</v>
+        <v>10365</v>
       </c>
       <c r="I7">
-        <v>9671.400000000003</v>
+        <v>9671.4</v>
       </c>
       <c r="J7">
         <v>297.5</v>
@@ -7142,13 +7142,13 @@
         <v>260.8</v>
       </c>
       <c r="M7">
-        <v>9410.600000000004</v>
+        <v>9410.6</v>
       </c>
       <c r="N7">
-        <v>9932.200000000003</v>
+        <v>9932.199999999999</v>
       </c>
       <c r="O7">
-        <v>691.6</v>
+        <v>693.6</v>
       </c>
       <c r="P7">
         <v>260.8</v>
@@ -7157,7 +7157,7 @@
         <v>7.2</v>
       </c>
       <c r="R7">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="S7" t="s">
         <v>312</v>
@@ -7172,7 +7172,7 @@
         <v>678927</v>
       </c>
       <c r="W7">
-        <v>101.9</v>
+        <v>102.2</v>
       </c>
       <c r="X7">
         <v>38.4</v>
@@ -7281,7 +7281,7 @@
         <v>1087</v>
       </c>
       <c r="H9">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="I9">
         <v>1117.4</v>
@@ -7302,13 +7302,13 @@
         <v>1149.8</v>
       </c>
       <c r="O9">
-        <v>95.59999999999999</v>
+        <v>101.6</v>
       </c>
       <c r="P9">
         <v>32.4</v>
       </c>
       <c r="Q9">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="R9">
         <v>3.1</v>
@@ -7326,7 +7326,7 @@
         <v>77501</v>
       </c>
       <c r="W9">
-        <v>123.4</v>
+        <v>131.1</v>
       </c>
       <c r="X9">
         <v>41.8</v>
@@ -7361,7 +7361,7 @@
         <v>3417</v>
       </c>
       <c r="I10">
-        <v>3745.599999999999</v>
+        <v>3745.6</v>
       </c>
       <c r="J10">
         <v>197.3</v>
@@ -7373,10 +7373,10 @@
         <v>172.9</v>
       </c>
       <c r="M10">
-        <v>3572.699999999999</v>
+        <v>3572.7</v>
       </c>
       <c r="N10">
-        <v>3918.499999999999</v>
+        <v>3918.5</v>
       </c>
       <c r="O10">
         <v>-328.6</v>
@@ -7435,7 +7435,7 @@
         <v>33588</v>
       </c>
       <c r="H11">
-        <v>36669</v>
+        <v>36673</v>
       </c>
       <c r="I11">
         <v>34943.8</v>
@@ -7456,7 +7456,7 @@
         <v>35320.3</v>
       </c>
       <c r="O11">
-        <v>1725.2</v>
+        <v>1729.2</v>
       </c>
       <c r="P11">
         <v>376.5</v>
@@ -7480,10 +7480,10 @@
         <v>3902936</v>
       </c>
       <c r="W11">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="X11">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Y11" t="s">
         <v>409</v>
@@ -7589,7 +7589,7 @@
         <v>11701</v>
       </c>
       <c r="H13">
-        <v>14156</v>
+        <v>14155</v>
       </c>
       <c r="I13">
         <v>11483.8</v>
@@ -7610,7 +7610,7 @@
         <v>11840.4</v>
       </c>
       <c r="O13">
-        <v>2672.2</v>
+        <v>2671.2</v>
       </c>
       <c r="P13">
         <v>356.6</v>
@@ -7619,7 +7619,7 @@
         <v>23.3</v>
       </c>
       <c r="R13">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="S13" t="s">
         <v>318</v>
@@ -7634,7 +7634,7 @@
         <v>643679</v>
       </c>
       <c r="W13">
-        <v>415.1</v>
+        <v>415</v>
       </c>
       <c r="X13">
         <v>55.4</v>
@@ -7743,7 +7743,7 @@
         <v>26478</v>
       </c>
       <c r="H15">
-        <v>32467</v>
+        <v>32468</v>
       </c>
       <c r="I15">
         <v>29591.4</v>
@@ -7764,7 +7764,7 @@
         <v>31118.2</v>
       </c>
       <c r="O15">
-        <v>2875.6</v>
+        <v>2876.6</v>
       </c>
       <c r="P15">
         <v>1526.8</v>
@@ -7788,7 +7788,7 @@
         <v>3471014</v>
       </c>
       <c r="W15">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="X15">
         <v>44</v>
@@ -7912,7 +7912,7 @@
         <v>3.2</v>
       </c>
       <c r="M17">
-        <v>17.40000000000001</v>
+        <v>17.4</v>
       </c>
       <c r="N17">
         <v>23.8</v>
@@ -7977,7 +7977,7 @@
         <v>3178</v>
       </c>
       <c r="I18">
-        <v>2769.200000000001</v>
+        <v>2769.2</v>
       </c>
       <c r="J18">
         <v>85.90000000000001</v>
@@ -7989,10 +7989,10 @@
         <v>75.3</v>
       </c>
       <c r="M18">
-        <v>2693.900000000001</v>
+        <v>2693.9</v>
       </c>
       <c r="N18">
-        <v>2844.500000000001</v>
+        <v>2844.5</v>
       </c>
       <c r="O18">
         <v>408.8</v>
@@ -8054,7 +8054,7 @@
         <v>274</v>
       </c>
       <c r="I19">
-        <v>259.1999999999999</v>
+        <v>259.2</v>
       </c>
       <c r="J19">
         <v>29.4</v>
@@ -8066,10 +8066,10 @@
         <v>25.8</v>
       </c>
       <c r="M19">
-        <v>233.3999999999999</v>
+        <v>233.4</v>
       </c>
       <c r="N19">
-        <v>284.9999999999999</v>
+        <v>285</v>
       </c>
       <c r="O19">
         <v>14.8</v>
@@ -8128,7 +8128,7 @@
         <v>233</v>
       </c>
       <c r="H20">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I20">
         <v>254.8</v>
@@ -8149,13 +8149,13 @@
         <v>268.5</v>
       </c>
       <c r="O20">
-        <v>-19.8</v>
+        <v>-18.8</v>
       </c>
       <c r="P20">
         <v>13.7</v>
       </c>
       <c r="Q20">
-        <v>-7.8</v>
+        <v>-7.4</v>
       </c>
       <c r="R20">
         <v>4.7</v>
@@ -8173,7 +8173,7 @@
         <v>28443</v>
       </c>
       <c r="W20">
-        <v>-69.59999999999999</v>
+        <v>-66.09999999999999</v>
       </c>
       <c r="X20">
         <v>48.2</v>
@@ -8205,10 +8205,10 @@
         <v>577</v>
       </c>
       <c r="H21">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="I21">
-        <v>563.5999999999999</v>
+        <v>563.6</v>
       </c>
       <c r="J21">
         <v>39.8</v>
@@ -8220,22 +8220,22 @@
         <v>34.9</v>
       </c>
       <c r="M21">
-        <v>528.6999999999999</v>
+        <v>528.7</v>
       </c>
       <c r="N21">
-        <v>598.4999999999999</v>
+        <v>598.5</v>
       </c>
       <c r="O21">
-        <v>135.4</v>
+        <v>158.4</v>
       </c>
       <c r="P21">
         <v>34.9</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>28.1</v>
       </c>
       <c r="R21">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="S21" t="s">
         <v>326</v>
@@ -8250,7 +8250,7 @@
         <v>36223</v>
       </c>
       <c r="W21">
-        <v>373.8</v>
+        <v>437.3</v>
       </c>
       <c r="X21">
         <v>96.3</v>
@@ -8285,7 +8285,7 @@
         <v>9724</v>
       </c>
       <c r="I22">
-        <v>9414.999999999996</v>
+        <v>9415</v>
       </c>
       <c r="J22">
         <v>530.1</v>
@@ -8297,10 +8297,10 @@
         <v>464.7</v>
       </c>
       <c r="M22">
-        <v>8950.299999999996</v>
+        <v>8950.299999999999</v>
       </c>
       <c r="N22">
-        <v>9879.699999999997</v>
+        <v>9879.700000000001</v>
       </c>
       <c r="O22">
         <v>309</v>
@@ -8359,7 +8359,7 @@
         <v>2151</v>
       </c>
       <c r="H23">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="I23">
         <v>2374</v>
@@ -8380,13 +8380,13 @@
         <v>2473.3</v>
       </c>
       <c r="O23">
-        <v>-104</v>
+        <v>-102</v>
       </c>
       <c r="P23">
         <v>99.3</v>
       </c>
       <c r="Q23">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="R23">
         <v>3.8</v>
@@ -8404,7 +8404,7 @@
         <v>275272</v>
       </c>
       <c r="W23">
-        <v>-37.8</v>
+        <v>-37.1</v>
       </c>
       <c r="X23">
         <v>36.1</v>
@@ -8516,7 +8516,7 @@
         <v>6254</v>
       </c>
       <c r="I25">
-        <v>5594.400000000001</v>
+        <v>5594.4</v>
       </c>
       <c r="J25">
         <v>89</v>
@@ -8528,10 +8528,10 @@
         <v>78</v>
       </c>
       <c r="M25">
-        <v>5516.400000000001</v>
+        <v>5516.4</v>
       </c>
       <c r="N25">
-        <v>5672.400000000001</v>
+        <v>5672.4</v>
       </c>
       <c r="O25">
         <v>659.6</v>
@@ -8593,7 +8593,7 @@
         <v>28104</v>
       </c>
       <c r="I26">
-        <v>21405.20000000001</v>
+        <v>21405.2</v>
       </c>
       <c r="J26">
         <v>1005.2</v>
@@ -8605,10 +8605,10 @@
         <v>881.1</v>
       </c>
       <c r="M26">
-        <v>20524.10000000001</v>
+        <v>20524.1</v>
       </c>
       <c r="N26">
-        <v>22286.30000000001</v>
+        <v>22286.3</v>
       </c>
       <c r="O26">
         <v>6698.8</v>
@@ -8821,7 +8821,7 @@
         <v>1457</v>
       </c>
       <c r="H29">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="I29">
         <v>1361.6</v>
@@ -8842,13 +8842,13 @@
         <v>1448</v>
       </c>
       <c r="O29">
-        <v>256.4</v>
+        <v>257.4</v>
       </c>
       <c r="P29">
         <v>86.40000000000001</v>
       </c>
       <c r="Q29">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="R29">
         <v>7.1</v>
@@ -8866,10 +8866,10 @@
         <v>134197</v>
       </c>
       <c r="W29">
-        <v>191.1</v>
+        <v>191.8</v>
       </c>
       <c r="X29">
-        <v>64.3</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="Y29" t="s">
         <v>427</v>
